--- a/BackTest/2020-01-15 BackTest EOS.xlsx
+++ b/BackTest/2020-01-15 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-8218.465848660002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-8206.478548660001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>3502</v>
@@ -523,7 +523,7 @@
         <v>-8369.860148660002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>3503</v>
@@ -562,7 +562,7 @@
         <v>-8362.300148660002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>3502</v>
@@ -601,7 +601,7 @@
         <v>-8381.300148660002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>3504</v>
@@ -640,7 +640,7 @@
         <v>-8381.300148660002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>3503</v>
@@ -679,7 +679,7 @@
         <v>-11241.85024866</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>3503</v>
@@ -718,7 +718,7 @@
         <v>-12697.64984866</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>3502</v>
@@ -757,7 +757,7 @@
         <v>-12697.64984866</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>3495</v>
@@ -796,7 +796,7 @@
         <v>-12723.80154866</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>3495</v>
@@ -835,7 +835,7 @@
         <v>-12760.71724866</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>3493</v>
@@ -874,7 +874,7 @@
         <v>-12684.10404866</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>3492</v>
@@ -913,7 +913,7 @@
         <v>-13647.18834866</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>3493</v>
@@ -952,7 +952,7 @@
         <v>-14417.03214866</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>3492</v>
@@ -991,7 +991,7 @@
         <v>-14417.03214866</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>3490</v>
@@ -1030,7 +1030,7 @@
         <v>-14148.34104866</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>3490</v>
@@ -1069,7 +1069,7 @@
         <v>-14583.27474866</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>3492</v>
@@ -1108,7 +1108,7 @@
         <v>-14583.27474866</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>3490</v>
@@ -1147,7 +1147,7 @@
         <v>-14557.04864866</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>3490</v>
@@ -1186,7 +1186,7 @@
         <v>-14475.53224866</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>3491</v>
@@ -1225,7 +1225,7 @@
         <v>-14701.40324866</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>3494</v>
@@ -1264,7 +1264,7 @@
         <v>-15605.30954866</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>3493</v>
@@ -1303,7 +1303,7 @@
         <v>-15605.30954866</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>3489</v>
@@ -1342,7 +1342,7 @@
         <v>-15600.11954866</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>3489</v>
@@ -1381,9 +1381,11 @@
         <v>-15617.46194866</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3492</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1418,7 +1420,7 @@
         <v>-15617.46194866</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>3489</v>
@@ -1457,7 +1459,7 @@
         <v>-15617.46194866</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>3489</v>
@@ -1496,7 +1498,7 @@
         <v>-13869.46194866</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>3489</v>
@@ -1535,7 +1537,7 @@
         <v>-14037.79954866</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>3491</v>
@@ -1574,7 +1576,7 @@
         <v>-14037.79954866</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>3489</v>
@@ -1613,7 +1615,7 @@
         <v>-13916.39304866</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>3489</v>
@@ -1652,7 +1654,7 @@
         <v>-10798.86334866</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>3491</v>
@@ -1691,7 +1693,7 @@
         <v>-12221.74604866</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>3500</v>
@@ -1730,7 +1732,7 @@
         <v>-12221.74604866</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>3493</v>
@@ -1769,7 +1771,7 @@
         <v>-12082.20534866001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>3493</v>
@@ -1808,7 +1810,7 @@
         <v>-12083.30532009</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>3503</v>
@@ -1847,7 +1849,7 @@
         <v>-12083.30532009</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>3501</v>
@@ -1886,7 +1888,7 @@
         <v>-12498.47082009</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>3501</v>
@@ -1925,7 +1927,7 @@
         <v>-12422.37082009</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>3499</v>
@@ -1964,7 +1966,7 @@
         <v>-11981.37082009</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>3505</v>
@@ -2003,7 +2005,7 @@
         <v>-10156.26942009</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>3511</v>
@@ -2042,7 +2044,7 @@
         <v>-8251.586020090004</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>3514</v>
@@ -2081,7 +2083,7 @@
         <v>-8699.789520090004</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>3520</v>
@@ -2120,9 +2122,11 @@
         <v>7558.675279909996</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3514</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2157,9 +2161,11 @@
         <v>10447.59557991</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3519</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2194,9 +2200,11 @@
         <v>10662.58077990999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3523</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2231,9 +2239,11 @@
         <v>17221.92367991</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3526</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2268,9 +2278,11 @@
         <v>16114.94787991</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3530</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2416,9 +2428,11 @@
         <v>11716.80397991</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3511</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2453,9 +2467,11 @@
         <v>11715.70400839999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3514</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2490,9 +2506,11 @@
         <v>11464.9241084</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3511</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2527,9 +2545,11 @@
         <v>11214.9241084</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3510</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2564,9 +2584,11 @@
         <v>11214.9241084</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3508</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2601,9 +2623,11 @@
         <v>11330.12500839999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3508</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2638,9 +2662,11 @@
         <v>11586.46180839999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3510</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2675,9 +2701,11 @@
         <v>12481.21480839999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3515</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2712,9 +2740,11 @@
         <v>11926.17580839999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3518</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2749,9 +2779,11 @@
         <v>11926.17580839999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3515</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2786,9 +2818,11 @@
         <v>11213.85230839999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3515</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2823,9 +2857,11 @@
         <v>10684.64630839999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3514</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2860,9 +2896,11 @@
         <v>10495.74660839999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3511</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2897,9 +2935,11 @@
         <v>10495.74660839999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3504</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2934,9 +2974,11 @@
         <v>10457.21290839999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3504</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2971,9 +3013,11 @@
         <v>10457.21290839999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3500</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -3008,9 +3052,11 @@
         <v>10457.21290839999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3500</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3045,9 +3091,11 @@
         <v>10457.21290839999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3500</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3082,9 +3130,11 @@
         <v>10457.21290839999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3500</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3119,9 +3169,11 @@
         <v>10446.14290839999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3500</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3156,9 +3208,11 @@
         <v>10446.14290839999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3495</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3193,9 +3247,11 @@
         <v>10446.14290839999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3495</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3230,9 +3286,11 @@
         <v>10446.14290839999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3495</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3267,7 +3325,7 @@
         <v>10446.14290839999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>3495</v>
@@ -3306,9 +3364,11 @@
         <v>10446.14290839999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3495</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3343,9 +3403,11 @@
         <v>11185.58580839999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3495</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3380,9 +3442,11 @@
         <v>11808.15380839999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3496</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3417,7 +3481,7 @@
         <v>11866.81080839999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>3498</v>
@@ -3456,7 +3520,7 @@
         <v>11943.78060839999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>3502</v>
@@ -3495,9 +3559,11 @@
         <v>11943.78060839999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3503</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3532,9 +3598,11 @@
         <v>11943.78060839999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3503</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3569,9 +3637,11 @@
         <v>11943.78060839999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3503</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3606,9 +3676,11 @@
         <v>11933.59300839999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3503</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3643,9 +3715,11 @@
         <v>12026.68300839999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3501</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3680,9 +3754,11 @@
         <v>12026.68300839999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3504</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3717,9 +3793,11 @@
         <v>11713.44670839999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3504</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3754,7 +3832,7 @@
         <v>11713.44670839999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>3501</v>
@@ -3793,7 +3871,7 @@
         <v>11713.44670839999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>3501</v>
@@ -3832,7 +3910,7 @@
         <v>11713.44670839999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>3501</v>
@@ -3871,9 +3949,11 @@
         <v>11713.44670839999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3501</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3908,9 +3988,11 @@
         <v>10139.98030839999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3501</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3945,9 +4027,11 @@
         <v>10399.42260839999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3498</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3982,9 +4066,11 @@
         <v>10023.57650839999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3500</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4019,9 +4105,11 @@
         <v>10009.09250839999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3499</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4056,9 +4144,11 @@
         <v>10024.04310839999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3498</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4093,9 +4183,11 @@
         <v>10144.17930839999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3499</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4130,9 +4222,11 @@
         <v>9519.184808399994</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3502</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4167,9 +4261,11 @@
         <v>9769.184808399994</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3498</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4204,9 +4300,11 @@
         <v>9830.076008399994</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3502</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4241,9 +4339,11 @@
         <v>9833.639608399993</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3504</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4278,9 +4378,11 @@
         <v>9697.112808399994</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3506</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4315,9 +4417,11 @@
         <v>9605.831708399994</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3504</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4352,9 +4456,11 @@
         <v>9872.261108399995</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3503</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4389,9 +4495,11 @@
         <v>10183.33500839999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3507</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4426,9 +4534,11 @@
         <v>10874.14400839999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3512</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4463,9 +4573,11 @@
         <v>10874.14400839999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3515</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4500,9 +4612,11 @@
         <v>10874.14400839999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3515</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4537,9 +4651,11 @@
         <v>10026.40390839999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3515</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4574,9 +4690,11 @@
         <v>9866.403908399992</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3514</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4611,9 +4729,11 @@
         <v>9867.666767159992</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3506</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4648,9 +4768,11 @@
         <v>9955.996067159991</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3519</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4685,9 +4807,11 @@
         <v>7953.000867159991</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3521</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4722,9 +4846,11 @@
         <v>7568.80106715999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3520</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4759,9 +4885,11 @@
         <v>7663.595167159991</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3518</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4796,9 +4924,11 @@
         <v>7663.595167159991</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3520</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4833,9 +4963,11 @@
         <v>8729.663267159991</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3520</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4870,9 +5002,11 @@
         <v>8729.663267159991</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3525</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4907,9 +5041,11 @@
         <v>9253.006367159991</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3525</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4944,9 +5080,11 @@
         <v>9743.07846715999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3528</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4981,9 +5119,11 @@
         <v>10117.78146715999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3529</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5018,9 +5158,11 @@
         <v>8070.90156715999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3530</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -5055,9 +5197,11 @@
         <v>8070.90156715999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3528</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5092,9 +5236,11 @@
         <v>8235.898067159989</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3528</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5129,9 +5275,11 @@
         <v>8235.898067159989</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3532</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5166,9 +5314,11 @@
         <v>7812.915467159989</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3532</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5203,9 +5353,11 @@
         <v>7812.915467159989</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3528</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5240,9 +5392,11 @@
         <v>6513.014267159989</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3528</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5277,9 +5431,11 @@
         <v>6513.014267159989</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3519</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5314,9 +5470,11 @@
         <v>8278.728767159988</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3519</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5351,9 +5509,11 @@
         <v>8232.993667159988</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>3522</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5388,9 +5548,11 @@
         <v>8220.997067159988</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3521</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5425,9 +5587,11 @@
         <v>8690.232467159987</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>3520</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5462,9 +5626,11 @@
         <v>8681.832467159988</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>3524</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5499,9 +5665,11 @@
         <v>8717.669967159987</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>3519</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5536,9 +5704,11 @@
         <v>8705.111867159987</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3521</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5573,9 +5743,11 @@
         <v>8055.558967159987</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3519</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5610,9 +5782,11 @@
         <v>8055.558967159987</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3518</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5647,9 +5821,11 @@
         <v>8055.558967159987</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>3518</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5684,9 +5860,11 @@
         <v>8542.723567159986</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3518</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5721,9 +5899,11 @@
         <v>9021.172167159986</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>3519</v>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5758,9 +5938,11 @@
         <v>7974.172167159986</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3521</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5795,9 +5977,11 @@
         <v>7986.057367159986</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>3519</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5832,9 +6016,11 @@
         <v>7976.057367159986</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3526</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5869,9 +6055,11 @@
         <v>7981.160067159986</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3521</v>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5906,9 +6094,11 @@
         <v>7981.160067159986</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>3522</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5943,9 +6133,11 @@
         <v>7981.160067159986</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>3522</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5980,9 +6172,11 @@
         <v>7981.160067159986</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3522</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -6017,9 +6211,11 @@
         <v>7981.160067159986</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>3522</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -6054,9 +6250,11 @@
         <v>8388.682567159985</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>3522</v>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -6091,9 +6289,11 @@
         <v>8489.945167159985</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>3525</v>
+      </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -6128,9 +6328,11 @@
         <v>8973.719767159986</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>3526</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6165,9 +6367,11 @@
         <v>11251.94796715999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3530</v>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -6202,9 +6406,11 @@
         <v>10610.96796715999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>3534</v>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6239,9 +6445,11 @@
         <v>10602.06391053999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3533</v>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6276,9 +6484,11 @@
         <v>10602.06391053999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3532</v>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -7386,9 +7596,11 @@
         <v>14225.65410213999</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3521</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7423,9 +7635,11 @@
         <v>16175.70850213999</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3520</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7460,9 +7674,11 @@
         <v>16248.12930213999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3521</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7497,9 +7713,11 @@
         <v>14370.29690213999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>3525</v>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7534,9 +7752,11 @@
         <v>15250.89470213999</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>3524</v>
+      </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7571,9 +7791,11 @@
         <v>15282.25520214</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3525</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7608,9 +7830,11 @@
         <v>15288.08870214</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3527</v>
+      </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -9347,9 +9571,11 @@
         <v>-697.7359068900096</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>3518</v>
+      </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -9384,9 +9610,11 @@
         <v>-671.6943068900096</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>3518</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9421,9 +9649,11 @@
         <v>164.1426931099904</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>3521</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9458,9 +9688,11 @@
         <v>-4935.85730689001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>3525</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9495,9 +9727,11 @@
         <v>-4964.364306890009</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>3522</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9532,9 +9766,11 @@
         <v>-1519.375006890009</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>3519</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9569,9 +9805,11 @@
         <v>-1548.034806890009</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>3523</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9606,9 +9844,11 @@
         <v>-1548.034806890009</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>3519</v>
+      </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9643,9 +9883,11 @@
         <v>-1546.209806890009</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>3519</v>
+      </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9680,9 +9922,11 @@
         <v>-450.3633068900087</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>3520</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9717,9 +9961,11 @@
         <v>-511.8898068900087</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>3524</v>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -9754,9 +10000,11 @@
         <v>5601.619193109991</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>3523</v>
+      </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -9791,9 +10039,11 @@
         <v>5021.069393109991</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>3526</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9828,9 +10078,11 @@
         <v>7021.069393109991</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>3524</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9902,9 +10154,11 @@
         <v>5457.975793109991</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>3523</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9939,9 +10193,11 @@
         <v>1464.478490389991</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>3527</v>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9976,9 +10232,11 @@
         <v>-513.1184096100087</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>3523</v>
+      </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -10013,9 +10271,11 @@
         <v>-512.1184096100087</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>3521</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -10198,9 +10458,11 @@
         <v>-742.1722096100087</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>3524</v>
+      </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -10753,9 +11015,11 @@
         <v>6109.022790389992</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>3519</v>
+      </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -10790,9 +11054,11 @@
         <v>5640.120790389992</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>3518</v>
+      </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10827,9 +11093,11 @@
         <v>5640.120790389992</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>3514</v>
+      </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -10864,9 +11132,11 @@
         <v>5640.120790389992</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>3514</v>
+      </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
@@ -10901,9 +11171,11 @@
         <v>5640.120790389992</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>3514</v>
+      </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -10938,9 +11210,11 @@
         <v>6381.602690389992</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>3514</v>
+      </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10975,9 +11249,11 @@
         <v>6649.685990389992</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>3520</v>
+      </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -11012,9 +11288,11 @@
         <v>6819.902590389992</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>3523</v>
+      </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -19004,16 +19282,18 @@
         <v>1430204.71463414</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L501" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L501" t="n">
+        <v>1</v>
+      </c>
       <c r="M501" t="inlineStr"/>
     </row>
     <row r="502">
@@ -19043,7 +19323,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19076,7 +19360,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19109,7 +19397,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19142,7 +19434,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19175,7 +19471,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19204,11 +19504,15 @@
         <v>1432372.74105792</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19237,11 +19541,15 @@
         <v>1432494.87305792</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19270,11 +19578,15 @@
         <v>1434686.28695792</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19303,11 +19615,15 @@
         <v>1436647.19577733</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19336,11 +19652,15 @@
         <v>1435778.90737733</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19369,11 +19689,15 @@
         <v>1435728.90737733</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19402,11 +19726,15 @@
         <v>1436029.59217733</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19435,11 +19763,15 @@
         <v>1456090.89337733</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19468,11 +19800,15 @@
         <v>1470189.12117733</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19501,11 +19837,15 @@
         <v>1457124.83327733</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19534,11 +19874,15 @@
         <v>1452900.95157733</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19567,11 +19911,15 @@
         <v>1444603.49337733</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19600,11 +19948,15 @@
         <v>1448305.55307733</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19637,7 +19989,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19670,7 +20026,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19703,7 +20063,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19736,7 +20100,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19769,7 +20137,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19802,7 +20174,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19835,7 +20211,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19868,7 +20248,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19901,7 +20285,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19934,7 +20322,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19963,14 +20355,16 @@
         <v>1426960.64699383</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="n">
-        <v>1</v>
-      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="inlineStr"/>
     </row>
     <row r="531">
@@ -20095,7 +20489,7 @@
         <v>1426824.97239383</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20128,7 +20522,7 @@
         <v>1426824.97239383</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20161,7 +20555,7 @@
         <v>1426824.97239383</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20194,7 +20588,7 @@
         <v>1426168.28959383</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20227,7 +20621,7 @@
         <v>1428868.61699383</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20260,7 +20654,7 @@
         <v>1430436.93579383</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20293,7 +20687,7 @@
         <v>1431553.69999383</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20326,7 +20720,7 @@
         <v>1421652.70309383</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20359,7 +20753,7 @@
         <v>1422569.47249383</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20392,7 +20786,7 @@
         <v>1422368.85969383</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20425,7 +20819,7 @@
         <v>1422984.78609383</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20458,7 +20852,7 @@
         <v>1430587.71139383</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20491,7 +20885,7 @@
         <v>1431255.24329383</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20590,7 +20984,7 @@
         <v>1448695.28149383</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20623,7 +21017,7 @@
         <v>1444582.84119383</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20656,7 +21050,7 @@
         <v>1444856.84119383</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20689,7 +21083,7 @@
         <v>1441512.04879383</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20722,7 +21116,7 @@
         <v>1441628.511593831</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20755,7 +21149,7 @@
         <v>1447285.036893831</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20788,7 +21182,7 @@
         <v>1453969.678093831</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20821,7 +21215,7 @@
         <v>1465000.995293831</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20854,7 +21248,7 @@
         <v>1462699.974593831</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20887,7 +21281,7 @@
         <v>1463395.95009383</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20920,7 +21314,7 @@
         <v>1462372.741293831</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20953,7 +21347,7 @@
         <v>1461985.19379383</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20986,7 +21380,7 @@
         <v>1461988.092193831</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21019,7 +21413,7 @@
         <v>1456318.696193831</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21052,7 +21446,7 @@
         <v>1458317.74229383</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21085,7 +21479,7 @@
         <v>1453019.090693831</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21118,7 +21512,7 @@
         <v>1452543.494593831</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21151,7 +21545,7 @@
         <v>1452543.494593831</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21184,7 +21578,7 @@
         <v>1457315.427793831</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21217,7 +21611,7 @@
         <v>1463570.342893831</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21250,7 +21644,7 @@
         <v>1463294.966893831</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21283,7 +21677,7 @@
         <v>1463774.503493831</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21316,7 +21710,7 @@
         <v>1461746.853693831</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21349,7 +21743,7 @@
         <v>1461746.853693831</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21382,7 +21776,7 @@
         <v>1462827.486593831</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21415,7 +21809,7 @@
         <v>1462827.486593831</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21448,7 +21842,7 @@
         <v>1453258.837093831</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21481,7 +21875,7 @@
         <v>1453258.837093831</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21514,7 +21908,7 @@
         <v>1451835.626293831</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21547,7 +21941,7 @@
         <v>1451297.129193831</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21580,7 +21974,7 @@
         <v>1452826.179693831</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21613,7 +22007,7 @@
         <v>1456560.813193831</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21646,7 +22040,7 @@
         <v>1456999.209393831</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21679,7 +22073,7 @@
         <v>1457178.200093831</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21712,7 +22106,7 @@
         <v>1457178.592693831</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21745,7 +22139,7 @@
         <v>1456336.315293831</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21778,7 +22172,7 @@
         <v>1456501.538293831</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21811,7 +22205,7 @@
         <v>1456501.538293831</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21844,7 +22238,7 @@
         <v>1456880.603693831</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21877,7 +22271,7 @@
         <v>1452812.991261231</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21910,7 +22304,7 @@
         <v>1456335.320861231</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21943,7 +22337,7 @@
         <v>1456335.320861231</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21976,7 +22370,7 @@
         <v>1459833.086161231</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22009,7 +22403,7 @@
         <v>1458188.103261231</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22042,7 +22436,7 @@
         <v>1457600.378261231</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22075,7 +22469,7 @@
         <v>1457331.299661231</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22108,7 +22502,7 @@
         <v>1455147.109561231</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22141,7 +22535,7 @@
         <v>1452257.196761231</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22174,7 +22568,7 @@
         <v>1445348.566167701</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22207,7 +22601,7 @@
         <v>1439793.852367701</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22240,7 +22634,7 @@
         <v>1430816.616967701</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22273,7 +22667,7 @@
         <v>1430816.616967701</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22306,7 +22700,7 @@
         <v>1436618.870967701</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22339,7 +22733,7 @@
         <v>1436618.870967701</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22372,7 +22766,7 @@
         <v>1441449.357267701</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22405,7 +22799,7 @@
         <v>1441449.357267701</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22438,7 +22832,7 @@
         <v>1443234.038267701</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22471,7 +22865,7 @@
         <v>1443040.207567701</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22504,7 +22898,7 @@
         <v>1442574.802267701</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22537,7 +22931,7 @@
         <v>1442736.675567701</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22570,7 +22964,7 @@
         <v>1442465.367067701</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22603,7 +22997,7 @@
         <v>1441728.787967701</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22636,7 +23030,7 @@
         <v>1439006.620567701</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22669,7 +23063,7 @@
         <v>1440129.680067701</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22702,7 +23096,7 @@
         <v>1440605.019367701</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22735,7 +23129,7 @@
         <v>1440620.019367701</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22768,7 +23162,7 @@
         <v>1440620.019367701</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22801,7 +23195,7 @@
         <v>1437790.837567701</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22834,7 +23228,7 @@
         <v>1438197.376567701</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22867,7 +23261,7 @@
         <v>1438197.376567701</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22900,7 +23294,7 @@
         <v>1435413.970567701</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22933,7 +23327,7 @@
         <v>1432135.443567701</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22966,7 +23360,7 @@
         <v>1427834.487367701</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22999,7 +23393,7 @@
         <v>1427248.361967701</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23032,7 +23426,7 @@
         <v>1426894.908567701</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23065,7 +23459,7 @@
         <v>1417642.695367701</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23098,7 +23492,7 @@
         <v>1419427.997867701</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23131,7 +23525,7 @@
         <v>1413003.322967701</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23164,7 +23558,7 @@
         <v>1409412.441967701</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23197,7 +23591,7 @@
         <v>1410880.756867701</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23230,7 +23624,7 @@
         <v>1408073.321567701</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23263,7 +23657,7 @@
         <v>1407883.806367701</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23296,7 +23690,7 @@
         <v>1404532.442467701</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23329,7 +23723,7 @@
         <v>1404532.442467701</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23362,7 +23756,7 @@
         <v>1404532.442467701</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23395,7 +23789,7 @@
         <v>1405314.363467701</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23428,7 +23822,7 @@
         <v>1403266.961767701</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23461,7 +23855,7 @@
         <v>1399473.160267701</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23494,7 +23888,7 @@
         <v>1401896.231767701</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23527,7 +23921,7 @@
         <v>1402868.214662771</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23560,7 +23954,7 @@
         <v>1403033.856467701</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23593,7 +23987,7 @@
         <v>1403033.856467701</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23626,7 +24020,7 @@
         <v>1408480.552767701</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23659,7 +24053,7 @@
         <v>1408499.028267701</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23692,7 +24086,7 @@
         <v>1407191.544267701</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23725,7 +24119,7 @@
         <v>1407220.277167701</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23758,7 +24152,7 @@
         <v>1407206.498867702</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23791,7 +24185,7 @@
         <v>1411945.331267701</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23824,7 +24218,7 @@
         <v>1415963.605167701</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23857,7 +24251,7 @@
         <v>1415665.046867701</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23890,7 +24284,7 @@
         <v>1416004.649067702</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23923,7 +24317,7 @@
         <v>1418212.545367701</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23956,7 +24350,7 @@
         <v>1418368.396867702</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23989,7 +24383,7 @@
         <v>1418368.396867702</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24022,7 +24416,7 @@
         <v>1419087.140367702</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24055,7 +24449,7 @@
         <v>1412186.037867702</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24088,7 +24482,7 @@
         <v>1401988.220467702</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24121,7 +24515,7 @@
         <v>1394539.414267702</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24154,7 +24548,7 @@
         <v>1396039.290622222</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24187,7 +24581,7 @@
         <v>1393854.211022221</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24220,7 +24614,7 @@
         <v>1394190.095822222</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24253,7 +24647,7 @@
         <v>1396803.962467702</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -24286,7 +24680,7 @@
         <v>1396803.962467702</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24319,7 +24713,7 @@
         <v>1396803.962467702</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24352,7 +24746,7 @@
         <v>1397025.881467702</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24385,7 +24779,7 @@
         <v>1388889.874905212</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24418,7 +24812,7 @@
         <v>1387921.901505212</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24451,7 +24845,7 @@
         <v>1387077.658705212</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24484,7 +24878,7 @@
         <v>1387652.770505212</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24517,7 +24911,7 @@
         <v>1397144.868805212</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24550,7 +24944,7 @@
         <v>1397144.868805212</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24583,7 +24977,7 @@
         <v>1397143.868805212</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24616,7 +25010,7 @@
         <v>1397143.868805212</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24649,7 +25043,7 @@
         <v>1397319.601405212</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24682,7 +25076,7 @@
         <v>1397319.601405212</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24715,7 +25109,7 @@
         <v>1397319.601405212</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24748,7 +25142,7 @@
         <v>1394316.080205212</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24781,7 +25175,7 @@
         <v>1394316.080205212</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24814,7 +25208,7 @@
         <v>1394316.080205212</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24847,7 +25241,7 @@
         <v>1373225.881505212</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24880,7 +25274,7 @@
         <v>1373225.881505212</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24913,7 +25307,7 @@
         <v>1373245.449105212</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24946,7 +25340,7 @@
         <v>1373245.449105212</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24979,7 +25373,7 @@
         <v>1373245.449105212</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25012,7 +25406,7 @@
         <v>1373245.449105212</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25045,7 +25439,7 @@
         <v>1373623.076405212</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25078,7 +25472,7 @@
         <v>1374075.072305212</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25111,7 +25505,7 @@
         <v>1374073.700405212</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25144,7 +25538,7 @@
         <v>1374739.153105212</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25177,7 +25571,7 @@
         <v>1373633.490405212</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25210,7 +25604,7 @@
         <v>1375620.288705212</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25243,7 +25637,7 @@
         <v>1378338.662705212</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25276,7 +25670,7 @@
         <v>1384012.480905212</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25309,7 +25703,7 @@
         <v>1384012.480905212</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25342,7 +25736,7 @@
         <v>1383197.847105212</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25375,7 +25769,7 @@
         <v>1384151.953805212</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25408,7 +25802,7 @@
         <v>1384151.953805212</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25441,7 +25835,7 @@
         <v>1384151.953805212</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25474,7 +25868,7 @@
         <v>1384045.311705212</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25507,7 +25901,7 @@
         <v>1384360.689905212</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25540,7 +25934,7 @@
         <v>1381601.533305211</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25573,7 +25967,7 @@
         <v>1381601.533305211</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25606,7 +26000,7 @@
         <v>1379085.430405211</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25639,7 +26033,7 @@
         <v>1378838.549105211</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25672,7 +26066,7 @@
         <v>1378838.549105211</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25705,7 +26099,7 @@
         <v>1375634.931905211</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25738,7 +26132,7 @@
         <v>1375634.931905211</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25771,7 +26165,7 @@
         <v>1372921.692405212</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25804,7 +26198,7 @@
         <v>1373021.692405212</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25837,7 +26231,7 @@
         <v>1368529.960505211</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25870,7 +26264,7 @@
         <v>1371072.561605212</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25903,7 +26297,7 @@
         <v>1369033.623705212</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25936,7 +26330,7 @@
         <v>1368676.395105212</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25969,7 +26363,7 @@
         <v>1368903.266605211</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26002,7 +26396,7 @@
         <v>1371476.622305211</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26035,7 +26429,7 @@
         <v>1371002.725405211</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26068,7 +26462,7 @@
         <v>1371570.514305211</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26101,7 +26495,7 @@
         <v>1370841.749805211</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26134,7 +26528,7 @@
         <v>1396969.748405211</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26167,7 +26561,7 @@
         <v>1406914.143205211</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26200,7 +26594,7 @@
         <v>1406914.143205211</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26233,7 +26627,7 @@
         <v>1407486.897705211</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26266,7 +26660,7 @@
         <v>1407486.897705211</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26299,7 +26693,7 @@
         <v>1408441.442705211</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26332,7 +26726,7 @@
         <v>1408417.950405211</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26365,7 +26759,7 @@
         <v>1402535.876105211</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26398,7 +26792,7 @@
         <v>1402535.876105211</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26431,7 +26825,7 @@
         <v>1403497.393605211</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26464,7 +26858,7 @@
         <v>1401244.206705211</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26497,7 +26891,7 @@
         <v>1400680.272205211</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26530,7 +26924,7 @@
         <v>1400431.245905211</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26563,7 +26957,7 @@
         <v>1400431.245905211</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26596,7 +26990,7 @@
         <v>1400431.245905211</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26629,7 +27023,7 @@
         <v>1398827.615505211</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26662,7 +27056,7 @@
         <v>1399802.769605211</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26695,7 +27089,7 @@
         <v>1399911.668505211</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26728,7 +27122,7 @@
         <v>1399758.856805211</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26761,7 +27155,7 @@
         <v>1399242.231405211</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26794,7 +27188,7 @@
         <v>1400813.964067471</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26827,7 +27221,7 @@
         <v>1405140.705364781</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26860,7 +27254,7 @@
         <v>1405027.595164781</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26893,7 +27287,7 @@
         <v>1405029.971364781</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26926,7 +27320,7 @@
         <v>1405029.971364781</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26959,7 +27353,7 @@
         <v>1405035.320464781</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26992,7 +27386,7 @@
         <v>1404531.535564781</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27025,7 +27419,7 @@
         <v>1405604.836864781</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27058,7 +27452,7 @@
         <v>1404761.240364781</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27091,7 +27485,7 @@
         <v>1404835.233364781</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27124,7 +27518,7 @@
         <v>1404783.669264781</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27157,7 +27551,7 @@
         <v>1404783.669264781</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27190,7 +27584,7 @@
         <v>1404465.371264781</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27223,7 +27617,7 @@
         <v>1404465.371264781</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27256,7 +27650,7 @@
         <v>1404465.371264781</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27289,7 +27683,7 @@
         <v>1401698.005864781</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27322,7 +27716,7 @@
         <v>1401698.005864781</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27355,7 +27749,7 @@
         <v>1401500.571664781</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27388,7 +27782,7 @@
         <v>1401500.571664781</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27421,7 +27815,7 @@
         <v>1401500.571664781</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27454,7 +27848,7 @@
         <v>1401435.307464781</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27487,7 +27881,7 @@
         <v>1401435.307464781</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27520,7 +27914,7 @@
         <v>1401599.414564781</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27553,7 +27947,7 @@
         <v>1401599.414564781</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27586,7 +27980,7 @@
         <v>1401455.895064781</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27619,7 +28013,7 @@
         <v>1397253.303617481</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27652,7 +28046,7 @@
         <v>1397253.303617481</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27685,7 +28079,7 @@
         <v>1397253.303617481</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27718,7 +28112,7 @@
         <v>1398066.267217481</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27751,7 +28145,7 @@
         <v>1398066.267217481</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27784,7 +28178,7 @@
         <v>1398150.164269891</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27817,7 +28211,7 @@
         <v>1397537.124069891</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27850,7 +28244,7 @@
         <v>1397537.124069891</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27883,7 +28277,7 @@
         <v>1397537.124069891</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27916,7 +28310,7 @@
         <v>1396770.937069891</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27949,7 +28343,7 @@
         <v>1400151.055369891</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27982,7 +28376,7 @@
         <v>1400145.113769891</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28015,7 +28409,7 @@
         <v>1400101.693469891</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28048,7 +28442,7 @@
         <v>1400101.693469891</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28081,7 +28475,7 @@
         <v>1397230.899669891</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28114,7 +28508,7 @@
         <v>1397517.371069891</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28147,7 +28541,7 @@
         <v>1397517.371069891</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28180,7 +28574,7 @@
         <v>1397627.367169891</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28213,7 +28607,7 @@
         <v>1397606.282069891</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28246,7 +28640,7 @@
         <v>1397863.342169891</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28279,7 +28673,7 @@
         <v>1396385.906169891</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28312,7 +28706,7 @@
         <v>1397162.545469891</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28345,7 +28739,7 @@
         <v>1396160.123769891</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28378,7 +28772,7 @@
         <v>1396160.123769891</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28411,7 +28805,7 @@
         <v>1396532.10256989</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28444,7 +28838,7 @@
         <v>1396988.10256989</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28477,7 +28871,7 @@
         <v>1396611.331269891</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28510,7 +28904,7 @@
         <v>1401097.42019699</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28543,7 +28937,7 @@
         <v>1402776.618662151</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28576,7 +28970,7 @@
         <v>1405785.74496215</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28609,7 +29003,7 @@
         <v>1411924.13419328</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28642,7 +29036,7 @@
         <v>1407062.436632921</v>
       </c>
       <c r="H793" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28675,7 +29069,7 @@
         <v>1407062.436632921</v>
       </c>
       <c r="H794" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28708,7 +29102,7 @@
         <v>1408856.93313292</v>
       </c>
       <c r="H795" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28741,7 +29135,7 @@
         <v>1409254.63583292</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28774,7 +29168,7 @@
         <v>1409254.63583292</v>
       </c>
       <c r="H797" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28807,7 +29201,7 @@
         <v>1410226.09073292</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28840,7 +29234,7 @@
         <v>1410226.09073292</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28873,7 +29267,7 @@
         <v>1410498.17513292</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28906,7 +29300,7 @@
         <v>1409010.213232921</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28939,7 +29333,7 @@
         <v>1411343.47723292</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28972,7 +29366,7 @@
         <v>1407022.78309328</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29005,7 +29399,7 @@
         <v>1408362.23819328</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29038,7 +29432,7 @@
         <v>1408274.55579328</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29071,7 +29465,7 @@
         <v>1402426.98539328</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29104,7 +29498,7 @@
         <v>1403282.26159328</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -29137,7 +29531,7 @@
         <v>1403282.26159328</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -29170,7 +29564,7 @@
         <v>1396675.50029328</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29203,7 +29597,7 @@
         <v>1395125.50689328</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29236,7 +29630,7 @@
         <v>1395251.05079328</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29269,7 +29663,7 @@
         <v>1395251.05079328</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29302,7 +29696,7 @@
         <v>1399484.14499328</v>
       </c>
       <c r="H813" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29335,7 +29729,7 @@
         <v>1401363.76589328</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29368,7 +29762,7 @@
         <v>1403646.04399328</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29401,7 +29795,7 @@
         <v>1403646.04399328</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29434,7 +29828,7 @@
         <v>1420632.55879195</v>
       </c>
       <c r="H817" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -29467,7 +29861,7 @@
         <v>1417370.61619195</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -29500,7 +29894,7 @@
         <v>1418727.95459195</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29533,7 +29927,7 @@
         <v>1412456.63139195</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29566,7 +29960,7 @@
         <v>1407128.51769195</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29599,7 +29993,7 @@
         <v>1406787.36979195</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29632,7 +30026,7 @@
         <v>1406018.89959195</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29665,7 +30059,7 @@
         <v>1406369.04809195</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29698,7 +30092,7 @@
         <v>1405968.55959195</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29731,7 +30125,7 @@
         <v>1405120.61939195</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29764,7 +30158,7 @@
         <v>1405120.61939195</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29797,7 +30191,7 @@
         <v>1405386.72939195</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29830,7 +30224,7 @@
         <v>1402812.86459195</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29863,7 +30257,7 @@
         <v>1402298.91699195</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29896,7 +30290,7 @@
         <v>1398197.43439195</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29929,7 +30323,7 @@
         <v>1398667.26729195</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29962,7 +30356,7 @@
         <v>1398667.26729195</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29995,7 +30389,7 @@
         <v>1398667.26729195</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -30028,7 +30422,7 @@
         <v>1397372.14559195</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -30061,7 +30455,7 @@
         <v>1397269.29469195</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -30094,7 +30488,7 @@
         <v>1397194.99469195</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -30127,7 +30521,7 @@
         <v>1392966.73189195</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -30160,7 +30554,7 @@
         <v>1393466.73189195</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -30193,7 +30587,7 @@
         <v>1390880.64969195</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -30226,7 +30620,7 @@
         <v>1392439.95264124</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -30259,7 +30653,7 @@
         <v>1392439.95264124</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -30292,7 +30686,7 @@
         <v>1387167.62194124</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -30325,7 +30719,7 @@
         <v>1387167.62194124</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30358,7 +30752,7 @@
         <v>1386529.12814124</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30391,7 +30785,7 @@
         <v>1385120.11403397</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30424,7 +30818,7 @@
         <v>1388516.98213397</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30457,7 +30851,7 @@
         <v>1388531.56933397</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30490,7 +30884,7 @@
         <v>1393568.29223397</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30523,7 +30917,7 @@
         <v>1395874.43953397</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30556,7 +30950,7 @@
         <v>1395085.33833397</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30589,7 +30983,7 @@
         <v>1397360.86813397</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30622,7 +31016,7 @@
         <v>1398296.06803397</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30655,7 +31049,7 @@
         <v>1397346.47313397</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30688,7 +31082,7 @@
         <v>1399198.49327642</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30721,7 +31115,7 @@
         <v>1399196.37307642</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30754,7 +31148,7 @@
         <v>1399196.37307642</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30787,7 +31181,7 @@
         <v>1396792.64107642</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30820,7 +31214,7 @@
         <v>1379615.36547642</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30853,7 +31247,7 @@
         <v>1377867.95377642</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30886,7 +31280,7 @@
         <v>1376567.24837642</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30919,7 +31313,7 @@
         <v>1377264.46707642</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30952,7 +31346,7 @@
         <v>1376287.13907642</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30985,7 +31379,7 @@
         <v>1365044.09467642</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -31018,7 +31412,7 @@
         <v>1368326.39037642</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -31051,7 +31445,7 @@
         <v>1368329.78167642</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -31084,7 +31478,7 @@
         <v>1368329.78167642</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -31117,7 +31511,7 @@
         <v>1369820.90907642</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -31150,7 +31544,7 @@
         <v>1368779.80147642</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -31183,7 +31577,7 @@
         <v>1368989.98657642</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -31216,7 +31610,7 @@
         <v>1368989.98657642</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -31249,7 +31643,7 @@
         <v>1368989.98657642</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -31282,7 +31676,7 @@
         <v>1368989.98657642</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -31348,7 +31742,7 @@
         <v>1365147.51567642</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -31381,7 +31775,7 @@
         <v>1364538.27187642</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31414,7 +31808,7 @@
         <v>1360254.19507642</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31447,7 +31841,7 @@
         <v>1360445.92527642</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -31480,7 +31874,7 @@
         <v>1359829.85477642</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31513,7 +31907,7 @@
         <v>1359829.85477642</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -32140,7 +32534,7 @@
         <v>1362494.41347642</v>
       </c>
       <c r="H899" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -32734,7 +33128,7 @@
         <v>1361403.31017642</v>
       </c>
       <c r="H917" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32767,7 +33161,7 @@
         <v>1365111.795276419</v>
       </c>
       <c r="H918" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32800,7 +33194,7 @@
         <v>1364180.675676419</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32833,7 +33227,7 @@
         <v>1364180.994976419</v>
       </c>
       <c r="H920" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32866,7 +33260,7 @@
         <v>1363518.01647642</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -32899,7 +33293,7 @@
         <v>1363406.025276419</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32932,7 +33326,7 @@
         <v>1363906.025276419</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32965,7 +33359,7 @@
         <v>1363253.77617642</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32998,7 +33392,7 @@
         <v>1361119.11647642</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33031,7 +33425,7 @@
         <v>1360494.95617642</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33097,7 +33491,7 @@
         <v>1359707.85612765</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33130,7 +33524,7 @@
         <v>1359753.45112765</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33163,7 +33557,7 @@
         <v>1357357.20042765</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33196,7 +33590,7 @@
         <v>1359050.31702765</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33229,7 +33623,7 @@
         <v>1358731.90992492</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33262,7 +33656,7 @@
         <v>1358618.27492492</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33295,7 +33689,7 @@
         <v>1358653.76922492</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33328,7 +33722,7 @@
         <v>1361989.89372492</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33361,7 +33755,7 @@
         <v>1361989.89372492</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33394,7 +33788,7 @@
         <v>1362217.58642492</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33427,7 +33821,7 @@
         <v>1362217.58642492</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33460,7 +33854,7 @@
         <v>1358178.11683033</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33493,7 +33887,7 @@
         <v>1358111.00032335</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33526,7 +33920,7 @@
         <v>1358111.00032335</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33559,7 +33953,7 @@
         <v>1358189.18102335</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33592,7 +33986,7 @@
         <v>1358329.22962335</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33625,7 +34019,7 @@
         <v>1358468.06602335</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33658,7 +34052,7 @@
         <v>1358468.06602335</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33691,7 +34085,7 @@
         <v>1358092.297023349</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33724,7 +34118,7 @@
         <v>1358092.297023349</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33757,7 +34151,7 @@
         <v>1358092.297023349</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33790,7 +34184,7 @@
         <v>1358673.230723349</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33823,7 +34217,7 @@
         <v>1358654.435523349</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33856,7 +34250,7 @@
         <v>1359342.107123349</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33889,7 +34283,7 @@
         <v>1358852.257123349</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33922,7 +34316,7 @@
         <v>1359758.942623349</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33955,7 +34349,7 @@
         <v>1363367.340923349</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -33988,7 +34382,7 @@
         <v>1366992.008423349</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -34021,7 +34415,7 @@
         <v>1377976.887478679</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -34054,7 +34448,7 @@
         <v>1432372.195478679</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -34087,7 +34481,7 @@
         <v>1414437.310878679</v>
       </c>
       <c r="H958" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -34120,7 +34514,7 @@
         <v>1439078.521078679</v>
       </c>
       <c r="H959" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -34153,7 +34547,7 @@
         <v>1432716.643178679</v>
       </c>
       <c r="H960" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -34186,7 +34580,7 @@
         <v>1418134.176878679</v>
       </c>
       <c r="H961" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -34219,7 +34613,7 @@
         <v>1409791.775578679</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -34252,7 +34646,7 @@
         <v>1418345.280978679</v>
       </c>
       <c r="H963" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -34285,7 +34679,7 @@
         <v>1412444.546478679</v>
       </c>
       <c r="H964" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -34318,7 +34712,7 @@
         <v>1412444.546478679</v>
       </c>
       <c r="H965" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -34351,7 +34745,7 @@
         <v>1412624.566878679</v>
       </c>
       <c r="H966" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34384,7 +34778,7 @@
         <v>1415160.796678679</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34417,7 +34811,7 @@
         <v>1409466.133878679</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -34450,7 +34844,7 @@
         <v>1398144.058078679</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -34483,7 +34877,7 @@
         <v>1392674.497678679</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34516,7 +34910,7 @@
         <v>1389673.662978679</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34549,7 +34943,7 @@
         <v>1393233.224378679</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34582,7 +34976,7 @@
         <v>1391136.953678679</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34615,7 +35009,7 @@
         <v>1392538.789478679</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34648,7 +35042,7 @@
         <v>1393816.270678679</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -34681,7 +35075,7 @@
         <v>1402802.752978679</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -34714,7 +35108,7 @@
         <v>1404407.828578679</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34747,7 +35141,7 @@
         <v>1402067.574978679</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34780,7 +35174,7 @@
         <v>1402067.574978679</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34813,7 +35207,7 @@
         <v>1401689.83643642</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34846,7 +35240,7 @@
         <v>1402783.37799821</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34879,7 +35273,7 @@
         <v>1403132.13999821</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34912,7 +35306,7 @@
         <v>1406613.51743642</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34945,7 +35339,7 @@
         <v>1393748.83333642</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34978,7 +35372,7 @@
         <v>1395416.03453642</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -35011,7 +35405,7 @@
         <v>1399333.57721829</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -35044,7 +35438,7 @@
         <v>1410843.41581829</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -35341,7 +35735,7 @@
         <v>1398965.58359217</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -35374,7 +35768,7 @@
         <v>1420566.31219217</v>
       </c>
       <c r="H997" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -35407,7 +35801,7 @@
         <v>1420566.31219217</v>
       </c>
       <c r="H998" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -35440,7 +35834,7 @@
         <v>1420566.31219217</v>
       </c>
       <c r="H999" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35473,7 +35867,7 @@
         <v>1407388.60359789</v>
       </c>
       <c r="H1000" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35506,7 +35900,7 @@
         <v>1414199.86839789</v>
       </c>
       <c r="H1001" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35539,7 +35933,7 @@
         <v>1418640.43329789</v>
       </c>
       <c r="H1002" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -35572,7 +35966,7 @@
         <v>1422221.16470361</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -35605,7 +35999,7 @@
         <v>1424065.65850361</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -35638,7 +36032,7 @@
         <v>1423129.34840361</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -35671,7 +36065,7 @@
         <v>1425832.10730361</v>
       </c>
       <c r="H1006" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35704,7 +36098,7 @@
         <v>1425832.10730361</v>
       </c>
       <c r="H1007" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35737,7 +36131,7 @@
         <v>1411198.47470361</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35770,7 +36164,7 @@
         <v>1417522.80630361</v>
       </c>
       <c r="H1009" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35803,7 +36197,7 @@
         <v>1409012.75120361</v>
       </c>
       <c r="H1010" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35836,7 +36230,7 @@
         <v>1406477.35910361</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35869,7 +36263,7 @@
         <v>1403931.28520361</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -35902,7 +36296,7 @@
         <v>1403382.80870361</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -35935,7 +36329,7 @@
         <v>1402496.83510361</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -35968,7 +36362,7 @@
         <v>1408849.45590361</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -36001,7 +36395,7 @@
         <v>1415842.36000361</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -36034,7 +36428,7 @@
         <v>1414256.49640361</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -36067,7 +36461,7 @@
         <v>1423291.20540361</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -36265,7 +36659,7 @@
         <v>1412589.53980361</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -36298,7 +36692,7 @@
         <v>1412589.53980361</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -36331,7 +36725,7 @@
         <v>1421146.94600361</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -36364,7 +36758,7 @@
         <v>1415932.67830361</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -36397,7 +36791,7 @@
         <v>1418522.37620361</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36430,7 +36824,7 @@
         <v>1428558.92690361</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36463,7 +36857,7 @@
         <v>1422790.21410361</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -36496,7 +36890,7 @@
         <v>1417610.82780361</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -36529,7 +36923,7 @@
         <v>1417610.82780361</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36562,7 +36956,7 @@
         <v>1417610.82780361</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -36595,7 +36989,7 @@
         <v>1416156.50670361</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -36628,7 +37022,7 @@
         <v>1416785.69061339</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -36661,7 +37055,7 @@
         <v>1423190.54541339</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36694,7 +37088,7 @@
         <v>1423190.54541339</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36727,7 +37121,7 @@
         <v>1419235.50581339</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36760,7 +37154,7 @@
         <v>1422091.18411339</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36793,7 +37187,7 @@
         <v>1428429.03211339</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -36826,7 +37220,7 @@
         <v>1428192.36151339</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -36859,7 +37253,7 @@
         <v>1428192.36151339</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36892,7 +37286,7 @@
         <v>1426229.25738588</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -36925,7 +37319,7 @@
         <v>1441783.08635837</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -36958,7 +37352,7 @@
         <v>1447271.89365837</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36991,7 +37385,7 @@
         <v>1447271.89365837</v>
       </c>
       <c r="H1046" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -37024,7 +37418,7 @@
         <v>1448271.89365837</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -37057,7 +37451,7 @@
         <v>1439002.84665837</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -37090,7 +37484,7 @@
         <v>1412559.91595837</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -37123,7 +37517,7 @@
         <v>1393985.62725837</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -37156,7 +37550,7 @@
         <v>1393585.62725837</v>
       </c>
       <c r="H1051" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -37189,7 +37583,7 @@
         <v>1375626.81685837</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -37222,7 +37616,7 @@
         <v>1382821.35638436</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -37255,7 +37649,7 @@
         <v>1386395.12819313</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -37288,7 +37682,7 @@
         <v>1386395.12819313</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -37321,7 +37715,7 @@
         <v>1386403.62819313</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -37354,7 +37748,7 @@
         <v>1386403.62819313</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -37387,7 +37781,7 @@
         <v>1385775.93509313</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -37420,7 +37814,7 @@
         <v>1387881.2521431</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -37453,7 +37847,7 @@
         <v>1387881.2521431</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -37486,7 +37880,7 @@
         <v>1388505.8510431</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -37519,7 +37913,7 @@
         <v>1390027.3513431</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -37552,7 +37946,7 @@
         <v>1403137.2802431</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -37585,7 +37979,7 @@
         <v>1425419.6836431</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -37618,7 +38012,7 @@
         <v>1422161.3265431</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -37651,7 +38045,7 @@
         <v>1419928.5925431</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -37684,7 +38078,7 @@
         <v>1420659.09631861</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -37717,7 +38111,7 @@
         <v>1419278.73142391</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -37750,7 +38144,7 @@
         <v>1423175.49732999</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -37783,7 +38177,7 @@
         <v>1435222.28622999</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -37816,7 +38210,7 @@
         <v>1453831.91315978</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -37849,7 +38243,7 @@
         <v>1474573.62725978</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -37882,7 +38276,7 @@
         <v>1476893.85215978</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -37915,7 +38309,7 @@
         <v>1503303.75665978</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -37948,7 +38342,7 @@
         <v>1500746.40505978</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -37981,7 +38375,7 @@
         <v>1515588.85295978</v>
       </c>
       <c r="H1076" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -38014,7 +38408,7 @@
         <v>1509235.36525978</v>
       </c>
       <c r="H1077" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -38047,7 +38441,7 @@
         <v>1508759.60995978</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -38080,7 +38474,7 @@
         <v>1508579.12385978</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -38113,7 +38507,7 @@
         <v>1507577.27505978</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -38146,7 +38540,7 @@
         <v>1508170.99905978</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -38179,7 +38573,7 @@
         <v>1509388.01705978</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -38212,7 +38606,7 @@
         <v>1509388.01705978</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -38245,7 +38639,7 @@
         <v>1512644.87315978</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -38278,7 +38672,7 @@
         <v>1504049.42423063</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -38311,7 +38705,7 @@
         <v>1503097.64033063</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -38344,7 +38738,7 @@
         <v>1508871.95163063</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -38377,7 +38771,7 @@
         <v>1510758.58573063</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -38410,7 +38804,7 @@
         <v>1510995.41253063</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -38443,7 +38837,7 @@
         <v>1504734.24103063</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -38476,7 +38870,7 @@
         <v>1536026.19093063</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -38509,7 +38903,7 @@
         <v>1515562.77633063</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -38542,7 +38936,7 @@
         <v>1511223.64993063</v>
       </c>
       <c r="H1093" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -38575,7 +38969,7 @@
         <v>1504483.75349499</v>
       </c>
       <c r="H1094" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -38608,7 +39002,7 @@
         <v>1505536.24239499</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -38641,7 +39035,7 @@
         <v>1519412.92969499</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -38674,7 +39068,7 @@
         <v>1520287.06859499</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -38707,7 +39101,7 @@
         <v>1537157.46669499</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -38740,7 +39134,7 @@
         <v>1536377.53589499</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -38773,7 +39167,7 @@
         <v>1546933.20647536</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -38806,7 +39200,7 @@
         <v>1567289.21569499</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -38839,7 +39233,7 @@
         <v>1623551.01040025</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -38872,7 +39266,7 @@
         <v>1593274.88122348</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -38905,7 +39299,7 @@
         <v>1596805.42042348</v>
       </c>
       <c r="H1104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -38916,6 +39310,6 @@
       <c r="M1104" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest EOS.xlsx
+++ b/BackTest/2020-01-15 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2044,11 +2044,9 @@
         <v>-8251.586020090004</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2083,11 +2081,9 @@
         <v>-8699.789520090004</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2122,11 +2118,9 @@
         <v>7558.675279909996</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2161,11 +2155,9 @@
         <v>10447.59557991</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2200,11 +2192,9 @@
         <v>10662.58077990999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2239,11 +2229,9 @@
         <v>17221.92367991</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2278,11 +2266,9 @@
         <v>16114.94787991</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2428,11 +2414,9 @@
         <v>11716.80397991</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3511</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2467,11 +2451,9 @@
         <v>11715.70400839999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2506,11 +2488,9 @@
         <v>11464.9241084</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3511</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2545,11 +2525,9 @@
         <v>11214.9241084</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2584,11 +2562,9 @@
         <v>11214.9241084</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3508</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2623,11 +2599,9 @@
         <v>11330.12500839999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3508</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2662,11 +2636,9 @@
         <v>11586.46180839999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2701,11 +2673,9 @@
         <v>12481.21480839999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3515</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2740,11 +2710,9 @@
         <v>11926.17580839999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2779,11 +2747,9 @@
         <v>11926.17580839999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3515</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2818,11 +2784,9 @@
         <v>11213.85230839999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3515</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2857,11 +2821,9 @@
         <v>10684.64630839999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2896,11 +2858,9 @@
         <v>10495.74660839999</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3511</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2935,11 +2895,9 @@
         <v>10495.74660839999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3504</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2974,11 +2932,9 @@
         <v>10457.21290839999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3504</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -4573,11 +4529,9 @@
         <v>10874.14400839999</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>3515</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4612,11 +4566,9 @@
         <v>10874.14400839999</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3515</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4651,11 +4603,9 @@
         <v>10026.40390839999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3515</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4690,11 +4640,9 @@
         <v>9866.403908399992</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4729,11 +4677,9 @@
         <v>9867.666767159992</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3506</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4768,11 +4714,9 @@
         <v>9955.996067159991</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4807,11 +4751,9 @@
         <v>7953.000867159991</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4846,11 +4788,9 @@
         <v>7568.80106715999</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>3520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4885,11 +4825,9 @@
         <v>7663.595167159991</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4924,11 +4862,9 @@
         <v>7663.595167159991</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>3520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4963,11 +4899,9 @@
         <v>8729.663267159991</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>3520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -5002,11 +4936,9 @@
         <v>8729.663267159991</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>3525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -5041,11 +4973,9 @@
         <v>9253.006367159991</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>3525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -5080,11 +5010,9 @@
         <v>9743.07846715999</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>3528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -5119,11 +5047,9 @@
         <v>10117.78146715999</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>3529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5158,11 +5084,9 @@
         <v>8070.90156715999</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -5197,11 +5121,9 @@
         <v>8070.90156715999</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>3528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5236,11 +5158,9 @@
         <v>8235.898067159989</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5275,11 +5195,9 @@
         <v>8235.898067159989</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5314,11 +5232,9 @@
         <v>7812.915467159989</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5353,11 +5269,9 @@
         <v>7812.915467159989</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5392,11 +5306,9 @@
         <v>6513.014267159989</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>3528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5431,11 +5343,9 @@
         <v>6513.014267159989</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>3519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5470,11 +5380,9 @@
         <v>8278.728767159988</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>3519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5509,11 +5417,9 @@
         <v>8232.993667159988</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>3522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5548,11 +5454,9 @@
         <v>8220.997067159988</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5587,11 +5491,9 @@
         <v>8690.232467159987</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>3520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5626,11 +5528,9 @@
         <v>8681.832467159988</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5665,11 +5565,9 @@
         <v>8717.669967159987</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>3519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5704,11 +5602,9 @@
         <v>8705.111867159987</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5743,11 +5639,9 @@
         <v>8055.558967159987</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>3519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5782,11 +5676,9 @@
         <v>8055.558967159987</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>3518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5821,11 +5713,9 @@
         <v>8055.558967159987</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5860,11 +5750,9 @@
         <v>8542.723567159986</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5899,11 +5787,9 @@
         <v>9021.172167159986</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5938,11 +5824,9 @@
         <v>7974.172167159986</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>3521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5977,11 +5861,9 @@
         <v>7986.057367159986</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>3519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -6016,11 +5898,9 @@
         <v>7976.057367159986</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -6055,11 +5935,9 @@
         <v>7981.160067159986</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>3521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -6094,11 +5972,9 @@
         <v>7981.160067159986</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>3522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -6133,11 +6009,9 @@
         <v>7981.160067159986</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>3522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -6172,11 +6046,9 @@
         <v>7981.160067159986</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>3522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -6211,11 +6083,9 @@
         <v>7981.160067159986</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>3522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -6250,11 +6120,9 @@
         <v>8388.682567159985</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>3522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -6289,11 +6157,9 @@
         <v>8489.945167159985</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>3525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -6328,11 +6194,9 @@
         <v>8973.719767159986</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>3526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6367,11 +6231,9 @@
         <v>11251.94796715999</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>3530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -6406,11 +6268,9 @@
         <v>10610.96796715999</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>3534</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6445,11 +6305,9 @@
         <v>10602.06391053999</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>3533</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6484,11 +6342,9 @@
         <v>10602.06391053999</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>3532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -7596,11 +7452,9 @@
         <v>14225.65410213999</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>3521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7635,11 +7489,9 @@
         <v>16175.70850213999</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>3520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7674,11 +7526,9 @@
         <v>16248.12930213999</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>3521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7713,11 +7563,9 @@
         <v>14370.29690213999</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7752,11 +7600,9 @@
         <v>15250.89470213999</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>3524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7791,11 +7637,9 @@
         <v>15282.25520214</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>3525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7830,11 +7674,9 @@
         <v>15288.08870214</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>3527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -9571,11 +9413,9 @@
         <v>-697.7359068900096</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>3518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -9610,11 +9450,9 @@
         <v>-671.6943068900096</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>3518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9649,11 +9487,9 @@
         <v>164.1426931099904</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>3521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9688,11 +9524,9 @@
         <v>-4935.85730689001</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>3525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9727,11 +9561,9 @@
         <v>-4964.364306890009</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>3522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9766,11 +9598,9 @@
         <v>-1519.375006890009</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>3519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9805,11 +9635,9 @@
         <v>-1548.034806890009</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>3523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9844,11 +9672,9 @@
         <v>-1548.034806890009</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>3519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9883,11 +9709,9 @@
         <v>-1546.209806890009</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>3519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9922,11 +9746,9 @@
         <v>-450.3633068900087</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>3520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9961,11 +9783,9 @@
         <v>-511.8898068900087</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>3524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -10000,11 +9820,9 @@
         <v>5601.619193109991</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>3523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -10039,11 +9857,9 @@
         <v>5021.069393109991</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>3526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -10078,11 +9894,9 @@
         <v>7021.069393109991</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>3524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -10154,11 +9968,9 @@
         <v>5457.975793109991</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>3523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -10193,11 +10005,9 @@
         <v>1464.478490389991</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>3527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -10232,11 +10042,9 @@
         <v>-513.1184096100087</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>3523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -10271,11 +10079,9 @@
         <v>-512.1184096100087</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>3521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -10458,11 +10264,9 @@
         <v>-742.1722096100087</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>3524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -11015,11 +10819,9 @@
         <v>6109.022790389992</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>3519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -11054,11 +10856,9 @@
         <v>5640.120790389992</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>3518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -11093,11 +10893,9 @@
         <v>5640.120790389992</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>3514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -11249,11 +11047,9 @@
         <v>6649.685990389992</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>3520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -11288,11 +11084,9 @@
         <v>6819.902590389992</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>3523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -12696,18 +12490,16 @@
         <v>69465.55969558001</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
@@ -12733,15 +12525,11 @@
         <v>56617.38093170001</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12774,11 +12562,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12807,15 +12591,11 @@
         <v>52916.42758341001</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12844,15 +12624,11 @@
         <v>45891.77588341001</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12881,15 +12657,11 @@
         <v>45570.57648341001</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12922,11 +12694,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12959,11 +12727,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12996,11 +12760,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13033,11 +12793,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13070,11 +12826,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13107,11 +12859,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13144,11 +12892,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13181,11 +12925,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13218,11 +12958,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +12991,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13292,11 +13024,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13329,11 +13057,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13362,15 +13086,11 @@
         <v>86200.87283001999</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13399,15 +13119,11 @@
         <v>106004.27773002</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13436,15 +13152,11 @@
         <v>64643.35979017999</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13473,15 +13185,11 @@
         <v>76556.47089017999</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13510,15 +13218,11 @@
         <v>65121.43272680999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13547,15 +13251,11 @@
         <v>78680.78482680999</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13584,15 +13284,11 @@
         <v>75738.08482680999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13621,15 +13317,11 @@
         <v>67294.69012680999</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13658,15 +13350,11 @@
         <v>67294.69012680999</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13695,15 +13383,11 @@
         <v>63361.48592680999</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13732,15 +13416,11 @@
         <v>76320.36542680999</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13769,15 +13449,11 @@
         <v>69554.32622680999</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13810,11 +13486,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13847,11 +13519,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13884,11 +13552,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13921,11 +13585,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13958,11 +13618,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13995,11 +13651,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14032,11 +13684,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14069,11 +13717,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14106,11 +13750,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14143,11 +13783,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14180,11 +13816,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14217,11 +13849,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14254,11 +13882,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14291,11 +13915,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14328,11 +13948,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14365,11 +13981,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14402,11 +14014,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14439,11 +14047,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14476,11 +14080,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14513,11 +14113,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14550,11 +14146,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14583,15 +14175,11 @@
         <v>128217.63690616</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14620,15 +14208,11 @@
         <v>166330.89156729</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14657,15 +14241,11 @@
         <v>140682.28881615</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14694,15 +14274,11 @@
         <v>132602.86511615</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14731,15 +14307,11 @@
         <v>143284.08881615</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14768,15 +14340,11 @@
         <v>124465.30871615</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14805,15 +14373,11 @@
         <v>127714.37642278</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14842,15 +14406,11 @@
         <v>113967.15033488</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14879,15 +14439,11 @@
         <v>106428.82663488</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14916,15 +14472,11 @@
         <v>93769.94083488001</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14953,15 +14505,11 @@
         <v>88319.69163488</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14990,15 +14538,11 @@
         <v>87460.73483488</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15027,15 +14571,11 @@
         <v>91845.50313488</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15068,11 +14608,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15105,11 +14641,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15142,11 +14674,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15179,11 +14707,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15216,11 +14740,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15253,11 +14773,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15290,11 +14806,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15327,11 +14839,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15364,11 +14872,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15401,11 +14905,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15438,11 +14938,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15475,11 +14971,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15512,11 +15004,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15545,15 +15033,11 @@
         <v>93790.03804940001</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15582,15 +15066,11 @@
         <v>94001.17504940002</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15619,15 +15099,11 @@
         <v>98618.05334940001</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15656,15 +15132,11 @@
         <v>103192.7138494</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15693,15 +15165,11 @@
         <v>100267.0636494</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15730,15 +15198,11 @@
         <v>102355.1931494</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15767,15 +15231,11 @@
         <v>101134.0536494</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15804,15 +15264,11 @@
         <v>102471.9884494</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15841,15 +15297,11 @@
         <v>101808.3862494</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15878,15 +15330,11 @@
         <v>96504.2384494</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15915,15 +15363,11 @@
         <v>90629.6076494</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15952,15 +15396,11 @@
         <v>90629.6076494</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15993,11 +15433,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16030,11 +15466,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16067,11 +15499,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16104,11 +15532,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16141,11 +15565,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16178,11 +15598,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16215,11 +15631,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16252,11 +15664,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16289,11 +15697,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16326,11 +15730,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16363,11 +15763,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16400,11 +15796,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16437,11 +15829,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16474,11 +15862,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16511,11 +15895,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16548,11 +15928,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16585,11 +15961,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16622,11 +15994,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16659,11 +16027,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16696,11 +16060,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16733,11 +16093,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16770,11 +16126,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16807,11 +16159,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16844,11 +16192,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16881,11 +16225,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16918,11 +16258,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16955,11 +16291,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16992,11 +16324,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17029,11 +16357,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17066,11 +16390,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17103,11 +16423,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17140,11 +16456,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17177,11 +16489,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17214,11 +16522,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17251,11 +16555,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17288,11 +16588,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17325,11 +16621,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17362,11 +16654,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17399,11 +16687,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17436,11 +16720,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17473,11 +16753,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17510,11 +16786,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17547,11 +16819,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17584,11 +16852,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17621,11 +16885,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17658,11 +16918,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17695,11 +16951,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17732,11 +16984,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17769,11 +17017,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17806,11 +17050,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17843,11 +17083,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17880,11 +17116,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17917,11 +17149,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17954,11 +17182,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17991,11 +17215,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18028,11 +17248,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18065,11 +17281,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18102,11 +17314,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18139,11 +17347,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18176,11 +17380,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18213,11 +17413,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18250,11 +17446,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18287,11 +17479,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18324,11 +17512,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18357,15 +17541,11 @@
         <v>1434771.17799221</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18394,15 +17574,11 @@
         <v>1434771.17799221</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18431,15 +17607,11 @@
         <v>1433481.29449221</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18468,15 +17640,11 @@
         <v>1429372.192292209</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18505,15 +17673,11 @@
         <v>1429372.192292209</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18542,15 +17706,11 @@
         <v>1427404.03189221</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18579,15 +17739,11 @@
         <v>1428797.25909221</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18616,15 +17772,11 @@
         <v>1427387.94939221</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18653,15 +17805,11 @@
         <v>1430144.57879221</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18690,15 +17838,11 @@
         <v>1430144.57879221</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18731,11 +17875,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18768,11 +17908,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18805,11 +17941,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18842,11 +17974,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18879,11 +18007,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18916,11 +18040,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18953,11 +18073,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18986,15 +18102,11 @@
         <v>1430475.24294015</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19023,15 +18135,11 @@
         <v>1428714.88764015</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19060,15 +18168,11 @@
         <v>1419117.41133414</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19101,11 +18205,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19138,11 +18238,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19175,11 +18271,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19208,15 +18300,11 @@
         <v>1422262.073534139</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19249,11 +18337,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19282,15 +18366,11 @@
         <v>1430204.71463414</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19323,11 +18403,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19360,11 +18436,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19397,11 +18469,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19434,11 +18502,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19467,15 +18531,11 @@
         <v>1435313.71825792</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19504,15 +18564,11 @@
         <v>1432372.74105792</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19541,15 +18597,11 @@
         <v>1432494.87305792</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19578,15 +18630,11 @@
         <v>1434686.28695792</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19615,15 +18663,11 @@
         <v>1436647.19577733</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19652,15 +18696,11 @@
         <v>1435778.90737733</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19689,15 +18729,11 @@
         <v>1435728.90737733</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19726,15 +18762,11 @@
         <v>1436029.59217733</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19763,15 +18795,11 @@
         <v>1456090.89337733</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19800,15 +18828,11 @@
         <v>1470189.12117733</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19837,15 +18861,11 @@
         <v>1457124.83327733</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19874,15 +18894,11 @@
         <v>1452900.95157733</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19911,15 +18927,11 @@
         <v>1444603.49337733</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19948,15 +18960,11 @@
         <v>1448305.55307733</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19985,15 +18993,11 @@
         <v>1447295.43187733</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20022,15 +19026,11 @@
         <v>1447295.43187733</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20059,15 +19059,11 @@
         <v>1434855.22597733</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20096,15 +19092,11 @@
         <v>1437219.27667733</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20133,15 +19125,11 @@
         <v>1438270.40337733</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20170,15 +19158,11 @@
         <v>1438416.25297733</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20207,15 +19191,11 @@
         <v>1438430.83597733</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20244,15 +19224,11 @@
         <v>1432361.19267733</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20285,11 +19261,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20322,11 +19294,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20355,16 +19323,14 @@
         <v>1426960.64699383</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="n">
+        <v>1</v>
+      </c>
       <c r="M530" t="inlineStr"/>
     </row>
     <row r="531">
@@ -20489,7 +19455,7 @@
         <v>1426824.97239383</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20522,7 +19488,7 @@
         <v>1426824.97239383</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20555,7 +19521,7 @@
         <v>1426824.97239383</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20588,7 +19554,7 @@
         <v>1426168.28959383</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20621,7 +19587,7 @@
         <v>1428868.61699383</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20654,7 +19620,7 @@
         <v>1430436.93579383</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20687,7 +19653,7 @@
         <v>1431553.69999383</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20720,7 +19686,7 @@
         <v>1421652.70309383</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20753,7 +19719,7 @@
         <v>1422569.47249383</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20786,7 +19752,7 @@
         <v>1422368.85969383</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20819,7 +19785,7 @@
         <v>1422984.78609383</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20852,7 +19818,7 @@
         <v>1430587.71139383</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20885,7 +19851,7 @@
         <v>1431255.24329383</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20984,7 +19950,7 @@
         <v>1448695.28149383</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -21017,7 +19983,7 @@
         <v>1444582.84119383</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -21050,7 +20016,7 @@
         <v>1444856.84119383</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21083,7 +20049,7 @@
         <v>1441512.04879383</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21116,7 +20082,7 @@
         <v>1441628.511593831</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21149,7 +20115,7 @@
         <v>1447285.036893831</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21182,7 +20148,7 @@
         <v>1453969.678093831</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21215,7 +20181,7 @@
         <v>1465000.995293831</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21248,7 +20214,7 @@
         <v>1462699.974593831</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21281,7 +20247,7 @@
         <v>1463395.95009383</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21314,7 +20280,7 @@
         <v>1462372.741293831</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21347,7 +20313,7 @@
         <v>1461985.19379383</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21380,7 +20346,7 @@
         <v>1461988.092193831</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21413,7 +20379,7 @@
         <v>1456318.696193831</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21446,7 +20412,7 @@
         <v>1458317.74229383</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21479,7 +20445,7 @@
         <v>1453019.090693831</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21512,7 +20478,7 @@
         <v>1452543.494593831</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21545,7 +20511,7 @@
         <v>1452543.494593831</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21578,7 +20544,7 @@
         <v>1457315.427793831</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21611,7 +20577,7 @@
         <v>1463570.342893831</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21644,7 +20610,7 @@
         <v>1463294.966893831</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21677,7 +20643,7 @@
         <v>1463774.503493831</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21710,7 +20676,7 @@
         <v>1461746.853693831</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21743,7 +20709,7 @@
         <v>1461746.853693831</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21776,7 +20742,7 @@
         <v>1462827.486593831</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21809,7 +20775,7 @@
         <v>1462827.486593831</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21842,7 +20808,7 @@
         <v>1453258.837093831</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21875,7 +20841,7 @@
         <v>1453258.837093831</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21908,7 +20874,7 @@
         <v>1451835.626293831</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21941,7 +20907,7 @@
         <v>1451297.129193831</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21974,7 +20940,7 @@
         <v>1452826.179693831</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22007,7 +20973,7 @@
         <v>1456560.813193831</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22040,7 +21006,7 @@
         <v>1456999.209393831</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22073,7 +21039,7 @@
         <v>1457178.200093831</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22106,7 +21072,7 @@
         <v>1457178.592693831</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22139,7 +21105,7 @@
         <v>1456336.315293831</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22172,7 +21138,7 @@
         <v>1456501.538293831</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22205,7 +21171,7 @@
         <v>1456501.538293831</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22238,7 +21204,7 @@
         <v>1456880.603693831</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22271,7 +21237,7 @@
         <v>1452812.991261231</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22304,7 +21270,7 @@
         <v>1456335.320861231</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22337,7 +21303,7 @@
         <v>1456335.320861231</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22370,7 +21336,7 @@
         <v>1459833.086161231</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22403,7 +21369,7 @@
         <v>1458188.103261231</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22436,7 +21402,7 @@
         <v>1457600.378261231</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22469,7 +21435,7 @@
         <v>1457331.299661231</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22502,7 +21468,7 @@
         <v>1455147.109561231</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22535,7 +21501,7 @@
         <v>1452257.196761231</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22568,7 +21534,7 @@
         <v>1445348.566167701</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22601,7 +21567,7 @@
         <v>1439793.852367701</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22634,7 +21600,7 @@
         <v>1430816.616967701</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22667,7 +21633,7 @@
         <v>1430816.616967701</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22700,7 +21666,7 @@
         <v>1436618.870967701</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22733,7 +21699,7 @@
         <v>1436618.870967701</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22766,7 +21732,7 @@
         <v>1441449.357267701</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22799,7 +21765,7 @@
         <v>1441449.357267701</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22832,7 +21798,7 @@
         <v>1443234.038267701</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22865,7 +21831,7 @@
         <v>1443040.207567701</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22898,7 +21864,7 @@
         <v>1442574.802267701</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22931,7 +21897,7 @@
         <v>1442736.675567701</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22964,7 +21930,7 @@
         <v>1442465.367067701</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22997,7 +21963,7 @@
         <v>1441728.787967701</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -23030,7 +21996,7 @@
         <v>1439006.620567701</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -23063,7 +22029,7 @@
         <v>1440129.680067701</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -23096,7 +22062,7 @@
         <v>1440605.019367701</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -23129,7 +22095,7 @@
         <v>1440620.019367701</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23162,7 +22128,7 @@
         <v>1440620.019367701</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23195,7 +22161,7 @@
         <v>1437790.837567701</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23228,7 +22194,7 @@
         <v>1438197.376567701</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23261,7 +22227,7 @@
         <v>1438197.376567701</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23294,7 +22260,7 @@
         <v>1435413.970567701</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23327,7 +22293,7 @@
         <v>1432135.443567701</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23360,7 +22326,7 @@
         <v>1427834.487367701</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23393,7 +22359,7 @@
         <v>1427248.361967701</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23426,7 +22392,7 @@
         <v>1426894.908567701</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23459,7 +22425,7 @@
         <v>1417642.695367701</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23492,7 +22458,7 @@
         <v>1419427.997867701</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23525,7 +22491,7 @@
         <v>1413003.322967701</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23558,7 +22524,7 @@
         <v>1409412.441967701</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23591,7 +22557,7 @@
         <v>1410880.756867701</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23624,7 +22590,7 @@
         <v>1408073.321567701</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23657,7 +22623,7 @@
         <v>1407883.806367701</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23690,7 +22656,7 @@
         <v>1404532.442467701</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23723,7 +22689,7 @@
         <v>1404532.442467701</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23756,7 +22722,7 @@
         <v>1404532.442467701</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23789,7 +22755,7 @@
         <v>1405314.363467701</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23822,7 +22788,7 @@
         <v>1403266.961767701</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23855,7 +22821,7 @@
         <v>1399473.160267701</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23888,7 +22854,7 @@
         <v>1401896.231767701</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23921,7 +22887,7 @@
         <v>1402868.214662771</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23954,7 +22920,7 @@
         <v>1403033.856467701</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23987,7 +22953,7 @@
         <v>1403033.856467701</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24020,7 +22986,7 @@
         <v>1408480.552767701</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24053,7 +23019,7 @@
         <v>1408499.028267701</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24086,7 +23052,7 @@
         <v>1407191.544267701</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24119,7 +23085,7 @@
         <v>1407220.277167701</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -24152,7 +23118,7 @@
         <v>1407206.498867702</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -24185,7 +23151,7 @@
         <v>1411945.331267701</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -24218,7 +23184,7 @@
         <v>1415963.605167701</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -24251,7 +23217,7 @@
         <v>1415665.046867701</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -24284,7 +23250,7 @@
         <v>1416004.649067702</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24317,7 +23283,7 @@
         <v>1418212.545367701</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -24350,7 +23316,7 @@
         <v>1418368.396867702</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -24383,7 +23349,7 @@
         <v>1418368.396867702</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24416,7 +23382,7 @@
         <v>1419087.140367702</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24449,7 +23415,7 @@
         <v>1412186.037867702</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24482,7 +23448,7 @@
         <v>1401988.220467702</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24515,7 +23481,7 @@
         <v>1394539.414267702</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24548,7 +23514,7 @@
         <v>1396039.290622222</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24581,7 +23547,7 @@
         <v>1393854.211022221</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24614,7 +23580,7 @@
         <v>1394190.095822222</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24647,7 +23613,7 @@
         <v>1396803.962467702</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -24680,7 +23646,7 @@
         <v>1396803.962467702</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24713,7 +23679,7 @@
         <v>1396803.962467702</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24746,7 +23712,7 @@
         <v>1397025.881467702</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24779,7 +23745,7 @@
         <v>1388889.874905212</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24812,7 +23778,7 @@
         <v>1387921.901505212</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24845,7 +23811,7 @@
         <v>1387077.658705212</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24878,7 +23844,7 @@
         <v>1387652.770505212</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24911,7 +23877,7 @@
         <v>1397144.868805212</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24944,7 +23910,7 @@
         <v>1397144.868805212</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24977,7 +23943,7 @@
         <v>1397143.868805212</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25010,7 +23976,7 @@
         <v>1397143.868805212</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25043,7 +24009,7 @@
         <v>1397319.601405212</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25076,7 +24042,7 @@
         <v>1397319.601405212</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25109,7 +24075,7 @@
         <v>1397319.601405212</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25142,7 +24108,7 @@
         <v>1394316.080205212</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25175,7 +24141,7 @@
         <v>1394316.080205212</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25208,7 +24174,7 @@
         <v>1394316.080205212</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25241,7 +24207,7 @@
         <v>1373225.881505212</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -25274,7 +24240,7 @@
         <v>1373225.881505212</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -25307,7 +24273,7 @@
         <v>1373245.449105212</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25340,7 +24306,7 @@
         <v>1373245.449105212</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25373,7 +24339,7 @@
         <v>1373245.449105212</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25406,7 +24372,7 @@
         <v>1373245.449105212</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25439,7 +24405,7 @@
         <v>1373623.076405212</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25472,7 +24438,7 @@
         <v>1374075.072305212</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25505,7 +24471,7 @@
         <v>1374073.700405212</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25538,7 +24504,7 @@
         <v>1374739.153105212</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25571,7 +24537,7 @@
         <v>1373633.490405212</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25604,7 +24570,7 @@
         <v>1375620.288705212</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25637,7 +24603,7 @@
         <v>1378338.662705212</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25670,7 +24636,7 @@
         <v>1384012.480905212</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25703,7 +24669,7 @@
         <v>1384012.480905212</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25736,7 +24702,7 @@
         <v>1383197.847105212</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25769,7 +24735,7 @@
         <v>1384151.953805212</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25802,7 +24768,7 @@
         <v>1384151.953805212</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25835,7 +24801,7 @@
         <v>1384151.953805212</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25868,7 +24834,7 @@
         <v>1384045.311705212</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25901,7 +24867,7 @@
         <v>1384360.689905212</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25934,7 +24900,7 @@
         <v>1381601.533305211</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25967,7 +24933,7 @@
         <v>1381601.533305211</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26000,7 +24966,7 @@
         <v>1379085.430405211</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26033,7 +24999,7 @@
         <v>1378838.549105211</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26066,7 +25032,7 @@
         <v>1378838.549105211</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26099,7 +25065,7 @@
         <v>1375634.931905211</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26132,7 +25098,7 @@
         <v>1375634.931905211</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26165,7 +25131,7 @@
         <v>1372921.692405212</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26198,7 +25164,7 @@
         <v>1373021.692405212</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26231,7 +25197,7 @@
         <v>1368529.960505211</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26264,7 +25230,7 @@
         <v>1371072.561605212</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26297,7 +25263,7 @@
         <v>1369033.623705212</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26330,7 +25296,7 @@
         <v>1368676.395105212</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26363,7 +25329,7 @@
         <v>1368903.266605211</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26396,7 +25362,7 @@
         <v>1371476.622305211</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26429,7 +25395,7 @@
         <v>1371002.725405211</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26462,7 +25428,7 @@
         <v>1371570.514305211</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26495,7 +25461,7 @@
         <v>1370841.749805211</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26528,7 +25494,7 @@
         <v>1396969.748405211</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26561,7 +25527,7 @@
         <v>1406914.143205211</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26594,7 +25560,7 @@
         <v>1406914.143205211</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26627,7 +25593,7 @@
         <v>1407486.897705211</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26660,7 +25626,7 @@
         <v>1407486.897705211</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26693,7 +25659,7 @@
         <v>1408441.442705211</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26726,7 +25692,7 @@
         <v>1408417.950405211</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26759,7 +25725,7 @@
         <v>1402535.876105211</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26792,7 +25758,7 @@
         <v>1402535.876105211</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26825,7 +25791,7 @@
         <v>1403497.393605211</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26858,7 +25824,7 @@
         <v>1401244.206705211</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26891,7 +25857,7 @@
         <v>1400680.272205211</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26924,7 +25890,7 @@
         <v>1400431.245905211</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26957,7 +25923,7 @@
         <v>1400431.245905211</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26990,7 +25956,7 @@
         <v>1400431.245905211</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27023,7 +25989,7 @@
         <v>1398827.615505211</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27056,7 +26022,7 @@
         <v>1399802.769605211</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27089,7 +26055,7 @@
         <v>1399911.668505211</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27122,7 +26088,7 @@
         <v>1399758.856805211</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27155,7 +26121,7 @@
         <v>1399242.231405211</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27188,7 +26154,7 @@
         <v>1400813.964067471</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -27221,7 +26187,7 @@
         <v>1405140.705364781</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -27254,7 +26220,7 @@
         <v>1405027.595164781</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -27287,7 +26253,7 @@
         <v>1405029.971364781</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -27320,7 +26286,7 @@
         <v>1405029.971364781</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27353,7 +26319,7 @@
         <v>1405035.320464781</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27386,7 +26352,7 @@
         <v>1404531.535564781</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27419,7 +26385,7 @@
         <v>1405604.836864781</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27452,7 +26418,7 @@
         <v>1404761.240364781</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27485,7 +26451,7 @@
         <v>1404835.233364781</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27518,7 +26484,7 @@
         <v>1404783.669264781</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27551,7 +26517,7 @@
         <v>1404783.669264781</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27584,7 +26550,7 @@
         <v>1404465.371264781</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27617,7 +26583,7 @@
         <v>1404465.371264781</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27650,7 +26616,7 @@
         <v>1404465.371264781</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27683,7 +26649,7 @@
         <v>1401698.005864781</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27716,7 +26682,7 @@
         <v>1401698.005864781</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27749,7 +26715,7 @@
         <v>1401500.571664781</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27782,7 +26748,7 @@
         <v>1401500.571664781</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27815,7 +26781,7 @@
         <v>1401500.571664781</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27848,7 +26814,7 @@
         <v>1401435.307464781</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27881,7 +26847,7 @@
         <v>1401435.307464781</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27914,7 +26880,7 @@
         <v>1401599.414564781</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27947,7 +26913,7 @@
         <v>1401599.414564781</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27980,7 +26946,7 @@
         <v>1401455.895064781</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28013,7 +26979,7 @@
         <v>1397253.303617481</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -28046,7 +27012,7 @@
         <v>1397253.303617481</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -28079,7 +27045,7 @@
         <v>1397253.303617481</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28112,7 +27078,7 @@
         <v>1398066.267217481</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28145,7 +27111,7 @@
         <v>1398066.267217481</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -28178,7 +27144,7 @@
         <v>1398150.164269891</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -28211,7 +27177,7 @@
         <v>1397537.124069891</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -28244,7 +27210,7 @@
         <v>1397537.124069891</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28277,7 +27243,7 @@
         <v>1397537.124069891</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28310,7 +27276,7 @@
         <v>1396770.937069891</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28343,7 +27309,7 @@
         <v>1400151.055369891</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28376,7 +27342,7 @@
         <v>1400145.113769891</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28409,7 +27375,7 @@
         <v>1400101.693469891</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28442,7 +27408,7 @@
         <v>1400101.693469891</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28475,7 +27441,7 @@
         <v>1397230.899669891</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28508,7 +27474,7 @@
         <v>1397517.371069891</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28541,7 +27507,7 @@
         <v>1397517.371069891</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28574,7 +27540,7 @@
         <v>1397627.367169891</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28607,7 +27573,7 @@
         <v>1397606.282069891</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28640,7 +27606,7 @@
         <v>1397863.342169891</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28673,7 +27639,7 @@
         <v>1396385.906169891</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28706,7 +27672,7 @@
         <v>1397162.545469891</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28739,7 +27705,7 @@
         <v>1396160.123769891</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28772,7 +27738,7 @@
         <v>1396160.123769891</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28805,7 +27771,7 @@
         <v>1396532.10256989</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28838,7 +27804,7 @@
         <v>1396988.10256989</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28871,7 +27837,7 @@
         <v>1396611.331269891</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28904,7 +27870,7 @@
         <v>1401097.42019699</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28937,7 +27903,7 @@
         <v>1402776.618662151</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28970,7 +27936,7 @@
         <v>1405785.74496215</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -29003,7 +27969,7 @@
         <v>1411924.13419328</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -29036,7 +28002,7 @@
         <v>1407062.436632921</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -29069,7 +28035,7 @@
         <v>1407062.436632921</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -29102,7 +28068,7 @@
         <v>1408856.93313292</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -29135,7 +28101,7 @@
         <v>1409254.63583292</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -29168,7 +28134,7 @@
         <v>1409254.63583292</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -29201,7 +28167,7 @@
         <v>1410226.09073292</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29234,7 +28200,7 @@
         <v>1410226.09073292</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -29267,7 +28233,7 @@
         <v>1410498.17513292</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29300,7 +28266,7 @@
         <v>1409010.213232921</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -29333,7 +28299,7 @@
         <v>1411343.47723292</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29366,7 +28332,7 @@
         <v>1407022.78309328</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29399,7 +28365,7 @@
         <v>1408362.23819328</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29432,7 +28398,7 @@
         <v>1408274.55579328</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29465,7 +28431,7 @@
         <v>1402426.98539328</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29498,7 +28464,7 @@
         <v>1403282.26159328</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -29531,7 +28497,7 @@
         <v>1403282.26159328</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -29564,7 +28530,7 @@
         <v>1396675.50029328</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29597,7 +28563,7 @@
         <v>1395125.50689328</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29630,7 +28596,7 @@
         <v>1395251.05079328</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29663,7 +28629,7 @@
         <v>1395251.05079328</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29696,7 +28662,7 @@
         <v>1399484.14499328</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29729,7 +28695,7 @@
         <v>1401363.76589328</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29762,7 +28728,7 @@
         <v>1403646.04399328</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29795,7 +28761,7 @@
         <v>1403646.04399328</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29828,7 +28794,7 @@
         <v>1420632.55879195</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -29861,7 +28827,7 @@
         <v>1417370.61619195</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -29894,7 +28860,7 @@
         <v>1418727.95459195</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29927,7 +28893,7 @@
         <v>1412456.63139195</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29960,7 +28926,7 @@
         <v>1407128.51769195</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29993,7 +28959,7 @@
         <v>1406787.36979195</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -30026,7 +28992,7 @@
         <v>1406018.89959195</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -30059,7 +29025,7 @@
         <v>1406369.04809195</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -30092,7 +29058,7 @@
         <v>1405968.55959195</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -30125,7 +29091,7 @@
         <v>1405120.61939195</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -30158,7 +29124,7 @@
         <v>1405120.61939195</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -30191,7 +29157,7 @@
         <v>1405386.72939195</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -30224,7 +29190,7 @@
         <v>1402812.86459195</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -30257,7 +29223,7 @@
         <v>1402298.91699195</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -30290,7 +29256,7 @@
         <v>1398197.43439195</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -30323,7 +29289,7 @@
         <v>1398667.26729195</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -30356,7 +29322,7 @@
         <v>1398667.26729195</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -30389,7 +29355,7 @@
         <v>1398667.26729195</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -30422,7 +29388,7 @@
         <v>1397372.14559195</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -30455,7 +29421,7 @@
         <v>1397269.29469195</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -30488,7 +29454,7 @@
         <v>1397194.99469195</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -30521,7 +29487,7 @@
         <v>1392966.73189195</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -30554,7 +29520,7 @@
         <v>1393466.73189195</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -30587,7 +29553,7 @@
         <v>1390880.64969195</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -30620,7 +29586,7 @@
         <v>1392439.95264124</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -30653,7 +29619,7 @@
         <v>1392439.95264124</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -30686,7 +29652,7 @@
         <v>1387167.62194124</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -30719,7 +29685,7 @@
         <v>1387167.62194124</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30752,7 +29718,7 @@
         <v>1386529.12814124</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30785,7 +29751,7 @@
         <v>1385120.11403397</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30818,7 +29784,7 @@
         <v>1388516.98213397</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30851,7 +29817,7 @@
         <v>1388531.56933397</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30884,7 +29850,7 @@
         <v>1393568.29223397</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30917,7 +29883,7 @@
         <v>1395874.43953397</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30950,7 +29916,7 @@
         <v>1395085.33833397</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30983,7 +29949,7 @@
         <v>1397360.86813397</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -31016,7 +29982,7 @@
         <v>1398296.06803397</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -31049,7 +30015,7 @@
         <v>1397346.47313397</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -31082,7 +30048,7 @@
         <v>1399198.49327642</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -31115,7 +30081,7 @@
         <v>1399196.37307642</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -31148,7 +30114,7 @@
         <v>1399196.37307642</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -31181,7 +30147,7 @@
         <v>1396792.64107642</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -31214,7 +30180,7 @@
         <v>1379615.36547642</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -31247,7 +30213,7 @@
         <v>1377867.95377642</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -31280,7 +30246,7 @@
         <v>1376567.24837642</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -31313,7 +30279,7 @@
         <v>1377264.46707642</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -31346,7 +30312,7 @@
         <v>1376287.13907642</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -31379,7 +30345,7 @@
         <v>1365044.09467642</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -31412,7 +30378,7 @@
         <v>1368326.39037642</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -31445,7 +30411,7 @@
         <v>1368329.78167642</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -31478,7 +30444,7 @@
         <v>1368329.78167642</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -31511,7 +30477,7 @@
         <v>1369820.90907642</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -31544,7 +30510,7 @@
         <v>1368779.80147642</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -31577,7 +30543,7 @@
         <v>1368989.98657642</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -31610,7 +30576,7 @@
         <v>1368989.98657642</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -31643,7 +30609,7 @@
         <v>1368989.98657642</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -31676,7 +30642,7 @@
         <v>1368989.98657642</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -31742,7 +30708,7 @@
         <v>1365147.51567642</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -31775,7 +30741,7 @@
         <v>1364538.27187642</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31808,7 +30774,7 @@
         <v>1360254.19507642</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31841,7 +30807,7 @@
         <v>1360445.92527642</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -31874,7 +30840,7 @@
         <v>1359829.85477642</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31907,7 +30873,7 @@
         <v>1359829.85477642</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -32765,7 +31731,7 @@
         <v>1360527.91487642</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32798,7 +31764,7 @@
         <v>1355551.09467642</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32831,7 +31797,7 @@
         <v>1356072.46307642</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32864,7 +31830,7 @@
         <v>1355769.38427642</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32897,7 +31863,7 @@
         <v>1355769.38427642</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32930,7 +31896,7 @@
         <v>1355769.38427642</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32963,7 +31929,7 @@
         <v>1354845.07387642</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32996,7 +31962,7 @@
         <v>1359485.88717642</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -33029,7 +31995,7 @@
         <v>1358455.26957642</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -33062,7 +32028,7 @@
         <v>1360445.44617642</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -33095,7 +32061,7 @@
         <v>1362121.214276419</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -33128,7 +32094,7 @@
         <v>1361403.31017642</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -33359,7 +32325,7 @@
         <v>1363253.77617642</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -33392,7 +32358,7 @@
         <v>1361119.11647642</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33425,7 +32391,7 @@
         <v>1360494.95617642</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33458,7 +32424,7 @@
         <v>1359917.81662765</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33557,7 +32523,7 @@
         <v>1357357.20042765</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33590,7 +32556,7 @@
         <v>1359050.31702765</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33623,7 +32589,7 @@
         <v>1358731.90992492</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33656,7 +32622,7 @@
         <v>1358618.27492492</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33689,7 +32655,7 @@
         <v>1358653.76922492</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33722,7 +32688,7 @@
         <v>1361989.89372492</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33755,7 +32721,7 @@
         <v>1361989.89372492</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33788,7 +32754,7 @@
         <v>1362217.58642492</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33821,7 +32787,7 @@
         <v>1362217.58642492</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33854,7 +32820,7 @@
         <v>1358178.11683033</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33887,7 +32853,7 @@
         <v>1358111.00032335</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33920,7 +32886,7 @@
         <v>1358111.00032335</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33953,7 +32919,7 @@
         <v>1358189.18102335</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33986,7 +32952,7 @@
         <v>1358329.22962335</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -34019,7 +32985,7 @@
         <v>1358468.06602335</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -34052,7 +33018,7 @@
         <v>1358468.06602335</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -34085,7 +33051,7 @@
         <v>1358092.297023349</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -34118,7 +33084,7 @@
         <v>1358092.297023349</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -34151,7 +33117,7 @@
         <v>1358092.297023349</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -34184,7 +33150,7 @@
         <v>1358673.230723349</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -34217,7 +33183,7 @@
         <v>1358654.435523349</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -34250,7 +33216,7 @@
         <v>1359342.107123349</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -34283,7 +33249,7 @@
         <v>1358852.257123349</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -34316,7 +33282,7 @@
         <v>1359758.942623349</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -34349,7 +33315,7 @@
         <v>1363367.340923349</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -34382,7 +33348,7 @@
         <v>1366992.008423349</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -34415,7 +33381,7 @@
         <v>1377976.887478679</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -34448,7 +33414,7 @@
         <v>1432372.195478679</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -34481,7 +33447,7 @@
         <v>1414437.310878679</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -34514,7 +33480,7 @@
         <v>1439078.521078679</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -34547,7 +33513,7 @@
         <v>1432716.643178679</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -34745,7 +33711,7 @@
         <v>1412624.566878679</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34778,7 +33744,7 @@
         <v>1415160.796678679</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34811,7 +33777,7 @@
         <v>1409466.133878679</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -34844,7 +33810,7 @@
         <v>1398144.058078679</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -34877,7 +33843,7 @@
         <v>1392674.497678679</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34910,7 +33876,7 @@
         <v>1389673.662978679</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34943,7 +33909,7 @@
         <v>1393233.224378679</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34976,7 +33942,7 @@
         <v>1391136.953678679</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -35009,7 +33975,7 @@
         <v>1392538.789478679</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -35042,7 +34008,7 @@
         <v>1393816.270678679</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -35075,7 +34041,7 @@
         <v>1402802.752978679</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -35108,7 +34074,7 @@
         <v>1404407.828578679</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -35141,7 +34107,7 @@
         <v>1402067.574978679</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -35174,7 +34140,7 @@
         <v>1402067.574978679</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -35207,7 +34173,7 @@
         <v>1401689.83643642</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -35240,7 +34206,7 @@
         <v>1402783.37799821</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -35273,7 +34239,7 @@
         <v>1403132.13999821</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -35306,7 +34272,7 @@
         <v>1406613.51743642</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -35339,7 +34305,7 @@
         <v>1393748.83333642</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -35372,7 +34338,7 @@
         <v>1395416.03453642</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -35405,7 +34371,7 @@
         <v>1399333.57721829</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -35438,7 +34404,7 @@
         <v>1410843.41581829</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -35735,7 +34701,7 @@
         <v>1398965.58359217</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -35768,7 +34734,7 @@
         <v>1420566.31219217</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -35801,7 +34767,7 @@
         <v>1420566.31219217</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -35834,7 +34800,7 @@
         <v>1420566.31219217</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35867,7 +34833,7 @@
         <v>1407388.60359789</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35900,7 +34866,7 @@
         <v>1414199.86839789</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35933,7 +34899,7 @@
         <v>1418640.43329789</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -35966,7 +34932,7 @@
         <v>1422221.16470361</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -35999,7 +34965,7 @@
         <v>1424065.65850361</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -36032,7 +34998,7 @@
         <v>1423129.34840361</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -36065,7 +35031,7 @@
         <v>1425832.10730361</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -36098,7 +35064,7 @@
         <v>1425832.10730361</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -36131,7 +35097,7 @@
         <v>1411198.47470361</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -36164,7 +35130,7 @@
         <v>1417522.80630361</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -36197,7 +35163,7 @@
         <v>1409012.75120361</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -36230,7 +35196,7 @@
         <v>1406477.35910361</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -36263,7 +35229,7 @@
         <v>1403931.28520361</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -36296,7 +35262,7 @@
         <v>1403382.80870361</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -36329,7 +35295,7 @@
         <v>1402496.83510361</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -36362,7 +35328,7 @@
         <v>1408849.45590361</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -36395,7 +35361,7 @@
         <v>1415842.36000361</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -36428,7 +35394,7 @@
         <v>1414256.49640361</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -36461,7 +35427,7 @@
         <v>1423291.20540361</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -36659,7 +35625,7 @@
         <v>1412589.53980361</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -36692,7 +35658,7 @@
         <v>1412589.53980361</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -36725,7 +35691,7 @@
         <v>1421146.94600361</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -36758,7 +35724,7 @@
         <v>1415932.67830361</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -36791,7 +35757,7 @@
         <v>1418522.37620361</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36824,7 +35790,7 @@
         <v>1428558.92690361</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36857,7 +35823,7 @@
         <v>1422790.21410361</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -36890,7 +35856,7 @@
         <v>1417610.82780361</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -36923,7 +35889,7 @@
         <v>1417610.82780361</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36956,7 +35922,7 @@
         <v>1417610.82780361</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -36989,7 +35955,7 @@
         <v>1416156.50670361</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -37022,7 +35988,7 @@
         <v>1416785.69061339</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -37055,7 +36021,7 @@
         <v>1423190.54541339</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -37088,7 +36054,7 @@
         <v>1423190.54541339</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -37121,7 +36087,7 @@
         <v>1419235.50581339</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -37154,7 +36120,7 @@
         <v>1422091.18411339</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -37187,7 +36153,7 @@
         <v>1428429.03211339</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -37220,7 +36186,7 @@
         <v>1428192.36151339</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -37253,7 +36219,7 @@
         <v>1428192.36151339</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -37286,7 +36252,7 @@
         <v>1426229.25738588</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -37319,7 +36285,7 @@
         <v>1441783.08635837</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -37352,7 +36318,7 @@
         <v>1447271.89365837</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -37385,7 +36351,7 @@
         <v>1447271.89365837</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -37418,7 +36384,7 @@
         <v>1448271.89365837</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -37451,7 +36417,7 @@
         <v>1439002.84665837</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -37484,7 +36450,7 @@
         <v>1412559.91595837</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -37517,7 +36483,7 @@
         <v>1393985.62725837</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -37550,7 +36516,7 @@
         <v>1393585.62725837</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -37583,7 +36549,7 @@
         <v>1375626.81685837</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -37616,7 +36582,7 @@
         <v>1382821.35638436</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -37649,7 +36615,7 @@
         <v>1386395.12819313</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -37682,7 +36648,7 @@
         <v>1386395.12819313</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -37715,7 +36681,7 @@
         <v>1386403.62819313</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -37748,7 +36714,7 @@
         <v>1386403.62819313</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -37781,7 +36747,7 @@
         <v>1385775.93509313</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -37814,7 +36780,7 @@
         <v>1387881.2521431</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -37847,7 +36813,7 @@
         <v>1387881.2521431</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -37880,7 +36846,7 @@
         <v>1388505.8510431</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -37913,7 +36879,7 @@
         <v>1390027.3513431</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -37946,7 +36912,7 @@
         <v>1403137.2802431</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -37979,7 +36945,7 @@
         <v>1425419.6836431</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -38012,7 +36978,7 @@
         <v>1422161.3265431</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -38045,7 +37011,7 @@
         <v>1419928.5925431</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -38078,7 +37044,7 @@
         <v>1420659.09631861</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -38111,7 +37077,7 @@
         <v>1419278.73142391</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -38144,7 +37110,7 @@
         <v>1423175.49732999</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -38177,7 +37143,7 @@
         <v>1435222.28622999</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -38210,7 +37176,7 @@
         <v>1453831.91315978</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -38243,7 +37209,7 @@
         <v>1474573.62725978</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -38276,7 +37242,7 @@
         <v>1476893.85215978</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -38309,7 +37275,7 @@
         <v>1503303.75665978</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -38342,7 +37308,7 @@
         <v>1500746.40505978</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -38408,7 +37374,7 @@
         <v>1509235.36525978</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -38441,7 +37407,7 @@
         <v>1508759.60995978</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -38474,7 +37440,7 @@
         <v>1508579.12385978</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -38507,7 +37473,7 @@
         <v>1507577.27505978</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -38540,7 +37506,7 @@
         <v>1508170.99905978</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -38573,7 +37539,7 @@
         <v>1509388.01705978</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -38606,7 +37572,7 @@
         <v>1509388.01705978</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -38639,7 +37605,7 @@
         <v>1512644.87315978</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -38672,7 +37638,7 @@
         <v>1504049.42423063</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -38705,7 +37671,7 @@
         <v>1503097.64033063</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -38738,7 +37704,7 @@
         <v>1508871.95163063</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -38771,7 +37737,7 @@
         <v>1510758.58573063</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -38804,7 +37770,7 @@
         <v>1510995.41253063</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -38837,7 +37803,7 @@
         <v>1504734.24103063</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -38870,7 +37836,7 @@
         <v>1536026.19093063</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -38903,7 +37869,7 @@
         <v>1515562.77633063</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -38936,7 +37902,7 @@
         <v>1511223.64993063</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -38969,7 +37935,7 @@
         <v>1504483.75349499</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -39002,7 +37968,7 @@
         <v>1505536.24239499</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -39035,7 +38001,7 @@
         <v>1519412.92969499</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -39068,7 +38034,7 @@
         <v>1520287.06859499</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -39101,7 +38067,7 @@
         <v>1537157.46669499</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -39134,7 +38100,7 @@
         <v>1536377.53589499</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -39167,7 +38133,7 @@
         <v>1546933.20647536</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -39200,7 +38166,7 @@
         <v>1567289.21569499</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -39233,7 +38199,7 @@
         <v>1623551.01040025</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -39266,7 +38232,7 @@
         <v>1593274.88122348</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -39299,7 +38265,7 @@
         <v>1596805.42042348</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -39310,6 +38276,6 @@
       <c r="M1104" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest EOS.xlsx
+++ b/BackTest/2020-01-15 BackTest EOS.xlsx
@@ -2969,11 +2969,9 @@
         <v>10457.21290839999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -3008,11 +3006,9 @@
         <v>10457.21290839999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3047,11 +3043,9 @@
         <v>10457.21290839999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -4451,11 +4445,9 @@
         <v>10183.33500839999</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3507</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4490,11 +4482,9 @@
         <v>10874.14400839999</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3512</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -10930,11 +10920,9 @@
         <v>5640.120790389992</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>3514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
@@ -10969,11 +10957,9 @@
         <v>5640.120790389992</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>3514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -11008,11 +10994,9 @@
         <v>6381.602690389992</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>3514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -12490,16 +12474,18 @@
         <v>69465.55969558001</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L323" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
       <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
@@ -12525,11 +12511,15 @@
         <v>56617.38093170001</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12562,7 +12552,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12591,11 +12585,15 @@
         <v>52916.42758341001</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12624,11 +12622,15 @@
         <v>45891.77588341001</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12657,11 +12659,15 @@
         <v>45570.57648341001</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12694,7 +12700,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12727,7 +12737,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12760,7 +12774,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12793,7 +12811,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12826,7 +12848,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12859,7 +12885,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12892,7 +12922,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12925,7 +12959,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12958,7 +12996,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12991,7 +13033,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13024,7 +13070,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13057,7 +13107,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13086,11 +13140,15 @@
         <v>86200.87283001999</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13119,11 +13177,15 @@
         <v>106004.27773002</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13152,11 +13214,15 @@
         <v>64643.35979017999</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13185,11 +13251,15 @@
         <v>76556.47089017999</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13218,11 +13288,15 @@
         <v>65121.43272680999</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13251,11 +13325,15 @@
         <v>78680.78482680999</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13284,11 +13362,15 @@
         <v>75738.08482680999</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13317,11 +13399,15 @@
         <v>67294.69012680999</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13350,11 +13436,15 @@
         <v>67294.69012680999</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13383,11 +13473,15 @@
         <v>63361.48592680999</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13416,11 +13510,15 @@
         <v>76320.36542680999</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13449,11 +13547,15 @@
         <v>69554.32622680999</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13486,7 +13588,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13519,7 +13625,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13552,7 +13662,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13585,7 +13699,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13618,7 +13736,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13651,7 +13773,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13684,7 +13810,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13717,7 +13847,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13750,7 +13884,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13783,7 +13921,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13816,7 +13958,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13849,7 +13995,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13882,7 +14032,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13915,7 +14069,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13948,7 +14106,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13981,7 +14143,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14014,7 +14180,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14047,7 +14217,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14080,7 +14254,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14113,7 +14291,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14146,7 +14328,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14175,11 +14361,15 @@
         <v>128217.63690616</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14208,11 +14398,15 @@
         <v>166330.89156729</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14241,11 +14435,15 @@
         <v>140682.28881615</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14274,11 +14472,15 @@
         <v>132602.86511615</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14307,11 +14509,15 @@
         <v>143284.08881615</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14340,11 +14546,15 @@
         <v>124465.30871615</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14373,11 +14583,15 @@
         <v>127714.37642278</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14406,11 +14620,15 @@
         <v>113967.15033488</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14439,11 +14657,15 @@
         <v>106428.82663488</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14472,11 +14694,15 @@
         <v>93769.94083488001</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14505,11 +14731,15 @@
         <v>88319.69163488</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14538,11 +14768,15 @@
         <v>87460.73483488</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14571,11 +14805,15 @@
         <v>91845.50313488</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14608,7 +14846,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14641,7 +14883,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14674,7 +14920,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14707,7 +14957,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14740,7 +14994,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14773,7 +15031,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14806,7 +15068,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14839,7 +15105,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14872,7 +15142,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14905,7 +15179,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14938,7 +15216,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14971,7 +15253,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15004,7 +15290,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15033,11 +15323,15 @@
         <v>93790.03804940001</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15066,11 +15360,15 @@
         <v>94001.17504940002</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15099,11 +15397,15 @@
         <v>98618.05334940001</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15132,11 +15434,15 @@
         <v>103192.7138494</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15165,11 +15471,15 @@
         <v>100267.0636494</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15198,11 +15508,15 @@
         <v>102355.1931494</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15231,11 +15545,15 @@
         <v>101134.0536494</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15264,11 +15582,15 @@
         <v>102471.9884494</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15297,11 +15619,15 @@
         <v>101808.3862494</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15330,11 +15656,15 @@
         <v>96504.2384494</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15363,11 +15693,15 @@
         <v>90629.6076494</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15396,11 +15730,15 @@
         <v>90629.6076494</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15433,7 +15771,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15466,7 +15808,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15499,7 +15845,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15532,7 +15882,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15565,7 +15919,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15598,7 +15956,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15631,7 +15993,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15664,7 +16030,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15697,7 +16067,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15730,7 +16104,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15763,7 +16141,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15796,7 +16178,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15829,7 +16215,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15862,7 +16252,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15895,7 +16289,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15928,7 +16326,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15961,7 +16363,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15994,7 +16400,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16027,7 +16437,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16060,7 +16474,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16093,7 +16511,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16126,7 +16548,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16159,7 +16585,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16192,7 +16622,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16225,7 +16659,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16258,7 +16696,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16291,7 +16733,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16324,7 +16770,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16357,7 +16807,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16390,7 +16844,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16423,7 +16881,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16456,7 +16918,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16489,7 +16955,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16522,7 +16992,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16555,7 +17029,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16588,7 +17066,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16621,7 +17103,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16654,7 +17140,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16687,7 +17177,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16720,7 +17214,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16753,7 +17251,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16786,7 +17288,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16819,7 +17325,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16852,7 +17362,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16885,7 +17399,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16918,7 +17436,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16951,7 +17473,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16984,7 +17510,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17017,7 +17547,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17050,7 +17584,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17083,7 +17621,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17116,7 +17658,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17149,7 +17695,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17182,7 +17732,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17215,7 +17769,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17248,7 +17806,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17281,7 +17843,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17314,7 +17880,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17347,7 +17917,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17380,7 +17954,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17413,7 +17991,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17446,7 +18028,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17479,7 +18065,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17512,7 +18102,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17541,11 +18135,15 @@
         <v>1434771.17799221</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17574,11 +18172,15 @@
         <v>1434771.17799221</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17607,11 +18209,15 @@
         <v>1433481.29449221</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17640,11 +18246,15 @@
         <v>1429372.192292209</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17673,11 +18283,15 @@
         <v>1429372.192292209</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17706,11 +18320,15 @@
         <v>1427404.03189221</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17739,11 +18357,15 @@
         <v>1428797.25909221</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17772,11 +18394,15 @@
         <v>1427387.94939221</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17805,11 +18431,15 @@
         <v>1430144.57879221</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17838,11 +18468,15 @@
         <v>1430144.57879221</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17875,7 +18509,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17908,7 +18546,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17941,7 +18583,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17974,7 +18620,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18007,7 +18657,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18040,7 +18694,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18073,7 +18731,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18102,11 +18764,15 @@
         <v>1430475.24294015</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18135,11 +18801,15 @@
         <v>1428714.88764015</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18168,11 +18838,15 @@
         <v>1419117.41133414</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18205,7 +18879,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18238,7 +18916,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18271,7 +18953,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18300,11 +18986,15 @@
         <v>1422262.073534139</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18337,7 +19027,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18366,11 +19060,15 @@
         <v>1430204.71463414</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18403,7 +19101,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18436,7 +19138,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18469,7 +19175,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18502,7 +19212,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18531,11 +19245,15 @@
         <v>1435313.71825792</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18564,11 +19282,15 @@
         <v>1432372.74105792</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18597,11 +19319,15 @@
         <v>1432494.87305792</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18630,11 +19356,15 @@
         <v>1434686.28695792</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18663,11 +19393,15 @@
         <v>1436647.19577733</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18696,11 +19430,15 @@
         <v>1435778.90737733</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18729,11 +19467,15 @@
         <v>1435728.90737733</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18762,11 +19504,15 @@
         <v>1436029.59217733</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18795,11 +19541,15 @@
         <v>1456090.89337733</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18828,11 +19578,15 @@
         <v>1470189.12117733</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18861,11 +19615,15 @@
         <v>1457124.83327733</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18894,11 +19652,15 @@
         <v>1452900.95157733</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18927,11 +19689,15 @@
         <v>1444603.49337733</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18960,11 +19726,15 @@
         <v>1448305.55307733</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18993,11 +19763,15 @@
         <v>1447295.43187733</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19026,11 +19800,15 @@
         <v>1447295.43187733</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19059,11 +19837,15 @@
         <v>1434855.22597733</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19092,11 +19874,15 @@
         <v>1437219.27667733</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19125,11 +19911,15 @@
         <v>1438270.40337733</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19158,11 +19948,15 @@
         <v>1438416.25297733</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19191,11 +19985,15 @@
         <v>1438430.83597733</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19224,11 +20022,15 @@
         <v>1432361.19267733</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19261,7 +20063,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19294,7 +20100,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19327,7 +20137,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19360,7 +20174,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19393,7 +20211,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19426,7 +20248,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19459,7 +20285,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19492,7 +20322,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19525,7 +20359,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19558,7 +20396,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19591,7 +20433,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19624,7 +20470,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19657,7 +20507,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19690,7 +20544,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19723,7 +20581,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19756,7 +20618,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19789,7 +20655,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19822,7 +20692,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19855,7 +20729,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19888,7 +20766,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19921,7 +20803,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19954,7 +20840,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19987,7 +20877,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20020,7 +20914,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20053,7 +20951,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20086,7 +20988,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20119,7 +21025,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20152,7 +21062,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20185,7 +21099,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20218,7 +21136,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20251,7 +21173,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20284,7 +21210,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20317,7 +21247,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20350,7 +21284,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20383,7 +21321,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20416,7 +21358,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20449,7 +21395,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20482,7 +21432,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20515,7 +21469,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20548,7 +21506,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20581,7 +21543,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20614,7 +21580,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20647,7 +21617,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20680,7 +21654,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20713,7 +21691,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20746,7 +21728,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20779,7 +21765,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20812,7 +21802,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20845,7 +21839,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20878,7 +21876,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20911,7 +21913,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20944,7 +21950,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20977,7 +21987,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21010,7 +22024,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21043,7 +22061,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21076,7 +22098,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21109,7 +22135,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21142,7 +22172,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21175,7 +22209,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21208,7 +22246,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21241,7 +22283,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21274,7 +22320,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21307,7 +22357,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21340,7 +22394,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21373,7 +22431,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21406,7 +22468,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21439,7 +22505,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21472,7 +22542,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21505,7 +22579,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21538,7 +22616,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21571,7 +22653,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21604,7 +22690,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21637,7 +22727,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21670,7 +22764,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21703,7 +22801,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21736,7 +22838,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21769,7 +22875,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21802,7 +22912,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21835,7 +22949,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21868,7 +22986,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21901,7 +23023,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21934,7 +23060,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21967,7 +23097,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22000,7 +23134,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22033,7 +23171,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22066,7 +23208,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22099,7 +23245,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22132,7 +23282,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22165,7 +23319,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22198,7 +23356,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22231,7 +23393,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22264,7 +23430,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22297,7 +23467,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22330,7 +23504,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22363,7 +23541,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22396,7 +23578,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22429,7 +23615,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22462,7 +23652,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22495,7 +23689,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22528,7 +23726,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22561,7 +23763,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22594,7 +23800,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22627,7 +23837,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22660,7 +23874,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22693,7 +23911,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22726,7 +23948,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22759,7 +23985,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22792,7 +24022,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22825,7 +24059,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22858,7 +24096,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22891,7 +24133,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22924,7 +24170,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22957,7 +24207,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22990,7 +24244,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23023,7 +24281,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23056,7 +24318,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23089,7 +24355,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23122,7 +24392,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23155,7 +24429,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23188,7 +24466,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23221,7 +24503,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23254,7 +24540,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23287,7 +24577,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23320,7 +24614,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23353,7 +24651,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23386,7 +24688,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23419,7 +24725,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23452,7 +24762,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23485,7 +24799,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23518,7 +24836,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23551,7 +24873,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23584,7 +24910,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23617,7 +24947,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23650,7 +24984,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23683,7 +25021,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23716,7 +25058,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23749,7 +25095,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23782,7 +25132,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23815,7 +25169,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23848,7 +25206,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23881,7 +25243,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23914,7 +25280,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23947,7 +25317,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23980,7 +25354,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24013,7 +25391,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24046,7 +25428,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24079,7 +25465,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24112,7 +25502,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24145,7 +25539,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24178,7 +25576,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24211,7 +25613,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24244,7 +25650,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24277,7 +25687,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24310,7 +25724,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24343,7 +25761,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24376,7 +25798,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24409,7 +25835,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24442,7 +25872,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24475,7 +25909,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24508,7 +25946,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24541,7 +25983,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24574,7 +26020,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24607,7 +26057,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24640,7 +26094,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24673,7 +26131,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24706,7 +26168,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24739,7 +26205,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24772,7 +26242,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24805,7 +26279,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24838,7 +26316,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24871,7 +26353,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24904,7 +26390,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24937,7 +26427,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24970,7 +26464,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25003,7 +26501,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25036,7 +26538,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25069,7 +26575,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25102,7 +26612,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25135,7 +26649,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25168,7 +26686,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25201,7 +26723,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25234,7 +26760,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25267,7 +26797,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25300,7 +26834,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25333,7 +26871,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25366,7 +26908,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25399,7 +26945,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25432,7 +26982,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25465,7 +27019,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25498,7 +27056,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25531,7 +27093,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25564,7 +27130,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25597,7 +27167,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25630,7 +27204,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25663,7 +27241,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25696,7 +27278,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25729,7 +27315,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25762,7 +27352,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25795,7 +27389,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25828,7 +27426,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25861,7 +27463,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25894,7 +27500,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25927,7 +27537,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25960,7 +27574,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25993,7 +27611,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26026,7 +27648,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26059,7 +27685,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26092,7 +27722,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26125,7 +27759,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26158,7 +27796,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26191,7 +27833,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26224,7 +27870,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26257,7 +27907,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26290,7 +27944,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26323,7 +27981,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26356,7 +28018,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26389,7 +28055,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26422,7 +28092,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26455,7 +28129,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26488,7 +28166,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26521,7 +28203,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26554,7 +28240,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26587,7 +28277,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26620,7 +28314,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26653,7 +28351,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26686,7 +28388,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26719,7 +28425,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26752,7 +28462,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26785,7 +28499,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26818,7 +28536,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26851,7 +28573,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26884,7 +28610,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26917,7 +28647,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26950,7 +28684,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26983,7 +28721,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27016,7 +28758,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27049,7 +28795,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27082,7 +28832,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27115,7 +28869,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27148,7 +28906,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27181,7 +28943,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27214,7 +28980,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27247,7 +29017,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27280,7 +29054,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27313,7 +29091,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27346,7 +29128,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27379,7 +29165,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27412,7 +29202,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27445,7 +29239,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27478,7 +29276,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27511,7 +29313,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27544,7 +29350,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27577,7 +29387,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27610,7 +29424,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27643,7 +29461,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27676,7 +29498,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27709,7 +29535,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27742,7 +29572,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27775,7 +29609,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27808,7 +29646,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27841,7 +29683,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27874,7 +29720,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27907,7 +29757,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27940,7 +29794,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27973,7 +29831,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28006,7 +29868,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28039,7 +29905,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28072,7 +29942,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28105,7 +29979,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28138,7 +30016,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28171,7 +30053,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28204,7 +30090,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28237,7 +30127,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28270,7 +30164,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28303,7 +30201,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28336,7 +30238,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28369,7 +30275,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28402,7 +30312,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28435,7 +30349,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28468,7 +30386,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28501,7 +30423,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28534,7 +30460,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28567,7 +30497,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28600,7 +30534,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28633,7 +30571,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28666,7 +30608,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28699,7 +30645,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28732,7 +30682,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28765,7 +30719,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28798,7 +30756,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28831,7 +30793,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28864,7 +30830,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28897,7 +30867,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28930,7 +30904,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28963,7 +30941,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28996,7 +30978,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29029,7 +31015,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29062,7 +31052,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29095,7 +31089,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29128,7 +31126,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29161,7 +31163,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29194,7 +31200,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29227,7 +31237,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29260,7 +31274,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29293,7 +31311,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29326,7 +31348,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29359,7 +31385,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29392,7 +31422,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29425,7 +31459,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29458,7 +31496,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29491,7 +31533,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29524,7 +31570,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29557,7 +31607,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29590,7 +31644,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29623,7 +31681,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29656,7 +31718,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29689,7 +31755,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29722,7 +31792,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29755,7 +31829,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29788,7 +31866,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29821,7 +31903,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29854,7 +31940,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29887,7 +31977,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29920,7 +32014,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29953,7 +32051,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29986,7 +32088,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30019,7 +32125,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30052,7 +32162,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30085,7 +32199,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30118,7 +32236,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30151,7 +32273,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30184,7 +32310,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30217,7 +32347,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30250,7 +32384,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30283,7 +32421,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30316,7 +32458,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30349,7 +32495,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30382,7 +32532,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30415,7 +32569,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30448,7 +32606,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30481,7 +32643,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30514,7 +32680,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30547,7 +32717,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30580,7 +32754,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30613,7 +32791,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30646,7 +32828,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30679,7 +32865,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30712,7 +32902,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30745,7 +32939,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30778,7 +32976,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30811,7 +33013,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30844,7 +33050,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30877,7 +33087,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30910,7 +33124,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30943,7 +33161,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30976,7 +33198,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31009,7 +33235,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31042,7 +33272,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31075,7 +33309,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -31108,7 +33346,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31141,7 +33383,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31174,7 +33420,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31207,7 +33457,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31240,7 +33494,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31273,7 +33531,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31306,7 +33568,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31339,7 +33605,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31372,7 +33642,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31405,7 +33679,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31438,7 +33716,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31471,7 +33753,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31504,7 +33790,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31537,7 +33827,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31570,7 +33864,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31603,7 +33901,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31636,7 +33938,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31669,7 +33975,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31702,7 +34012,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31731,11 +34045,15 @@
         <v>1360527.91487642</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31764,11 +34082,15 @@
         <v>1355551.09467642</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31797,11 +34119,15 @@
         <v>1356072.46307642</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31830,11 +34156,15 @@
         <v>1355769.38427642</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31863,11 +34193,15 @@
         <v>1355769.38427642</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31896,11 +34230,15 @@
         <v>1355769.38427642</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31929,11 +34267,15 @@
         <v>1354845.07387642</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31962,11 +34304,15 @@
         <v>1359485.88717642</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31995,11 +34341,15 @@
         <v>1358455.26957642</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -32028,11 +34378,15 @@
         <v>1360445.44617642</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -32061,11 +34415,15 @@
         <v>1362121.214276419</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -32094,11 +34452,15 @@
         <v>1361403.31017642</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -32127,11 +34489,15 @@
         <v>1365111.795276419</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -32160,11 +34526,15 @@
         <v>1364180.675676419</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -32193,11 +34563,15 @@
         <v>1364180.994976419</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -32226,11 +34600,15 @@
         <v>1363518.01647642</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -32259,11 +34637,15 @@
         <v>1363406.025276419</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -32292,11 +34674,15 @@
         <v>1363906.025276419</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -32329,7 +34715,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -32362,7 +34752,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32395,7 +34789,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -32424,11 +34822,15 @@
         <v>1359917.81662765</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -32457,11 +34859,15 @@
         <v>1359707.85612765</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32490,11 +34896,15 @@
         <v>1359753.45112765</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32527,7 +34937,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -32560,7 +34974,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -32593,7 +35011,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -32626,7 +35048,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32659,7 +35085,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32692,7 +35122,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32725,7 +35159,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32758,7 +35196,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32791,7 +35233,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32824,7 +35270,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32857,7 +35307,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32890,7 +35344,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32923,7 +35381,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32956,7 +35418,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32989,7 +35455,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -33022,7 +35492,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -33055,7 +35529,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -33088,7 +35566,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -33121,7 +35603,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -33154,7 +35640,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -33187,7 +35677,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -33220,7 +35714,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -33253,7 +35751,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33286,7 +35788,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -33319,7 +35825,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -33352,7 +35862,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -33385,7 +35899,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -33418,7 +35936,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -33451,7 +35973,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -33484,7 +36010,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33517,7 +36047,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33550,7 +36084,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33583,7 +36121,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33616,7 +36158,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33649,7 +36195,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33682,7 +36232,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33715,7 +36269,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33748,7 +36306,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33781,7 +36343,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33814,7 +36380,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33847,7 +36417,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33880,7 +36454,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33913,7 +36491,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33946,7 +36528,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33979,7 +36565,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -34012,7 +36602,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -34045,7 +36639,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -34078,7 +36676,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -34111,7 +36713,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -34144,7 +36750,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -34177,7 +36787,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -34210,7 +36824,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -34243,7 +36861,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -34276,7 +36898,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -34309,7 +36935,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -34342,7 +36972,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -34375,7 +37009,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34408,7 +37046,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34441,7 +37083,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34470,14 +37116,16 @@
         <v>1431208.461992169</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
-      <c r="L989" t="n">
-        <v>1</v>
-      </c>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L989" t="inlineStr"/>
       <c r="M989" t="inlineStr"/>
     </row>
     <row r="990">
@@ -34503,7 +37151,7 @@
         <v>1417172.02909217</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -37110,7 +39758,7 @@
         <v>1423175.49732999</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -37242,7 +39890,7 @@
         <v>1476893.85215978</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -37275,7 +39923,7 @@
         <v>1503303.75665978</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -37308,7 +39956,7 @@
         <v>1500746.40505978</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -37341,7 +39989,7 @@
         <v>1515588.85295978</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -37374,7 +40022,7 @@
         <v>1509235.36525978</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -37407,7 +40055,7 @@
         <v>1508759.60995978</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -37440,7 +40088,7 @@
         <v>1508579.12385978</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -37473,7 +40121,7 @@
         <v>1507577.27505978</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -37506,7 +40154,7 @@
         <v>1508170.99905978</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -37539,7 +40187,7 @@
         <v>1509388.01705978</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -37572,7 +40220,7 @@
         <v>1509388.01705978</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -37605,7 +40253,7 @@
         <v>1512644.87315978</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -37638,7 +40286,7 @@
         <v>1504049.42423063</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -37671,7 +40319,7 @@
         <v>1503097.64033063</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -37704,7 +40352,7 @@
         <v>1508871.95163063</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -37737,7 +40385,7 @@
         <v>1510758.58573063</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -37770,7 +40418,7 @@
         <v>1510995.41253063</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -37803,7 +40451,7 @@
         <v>1504734.24103063</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -37836,7 +40484,7 @@
         <v>1536026.19093063</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -37869,7 +40517,7 @@
         <v>1515562.77633063</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -37902,7 +40550,7 @@
         <v>1511223.64993063</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -37935,7 +40583,7 @@
         <v>1504483.75349499</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -37968,7 +40616,7 @@
         <v>1505536.24239499</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -38001,7 +40649,7 @@
         <v>1519412.92969499</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -38034,7 +40682,7 @@
         <v>1520287.06859499</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -38067,7 +40715,7 @@
         <v>1537157.46669499</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -38100,7 +40748,7 @@
         <v>1536377.53589499</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -38133,7 +40781,7 @@
         <v>1546933.20647536</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -38166,7 +40814,7 @@
         <v>1567289.21569499</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -38199,7 +40847,7 @@
         <v>1623551.01040025</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -38232,7 +40880,7 @@
         <v>1593274.88122348</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -38265,7 +40913,7 @@
         <v>1596805.42042348</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
